--- a/data/Bolometer_readings_PulseForge.xlsx
+++ b/data/Bolometer_readings_PulseForge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valenetjong/Bayesian-Optimization-Ferroelectrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7F77E4-E026-DC47-823D-5EB05D85AD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9C3FAC-396C-634A-8A22-0D05467717A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50020" yWindow="-1180" windowWidth="29980" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="28260" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
   <si>
     <t>Sample ID</t>
   </si>
@@ -207,12 +207,99 @@
   <si>
     <t>Time (ms)</t>
   </si>
+  <si>
+    <t>KHM006_17</t>
+  </si>
+  <si>
+    <t>KHM006_7</t>
+  </si>
+  <si>
+    <t>KHM006_11</t>
+  </si>
+  <si>
+    <t>KHM006_15</t>
+  </si>
+  <si>
+    <t>KHM006_18</t>
+  </si>
+  <si>
+    <t>KHM006_2</t>
+  </si>
+  <si>
+    <t>KHM006_12</t>
+  </si>
+  <si>
+    <t>KHM006_19</t>
+  </si>
+  <si>
+    <t>KHM006_3</t>
+  </si>
+  <si>
+    <t>KHM006_8</t>
+  </si>
+  <si>
+    <t>KHM006_13</t>
+  </si>
+  <si>
+    <t>KHM006_14</t>
+  </si>
+  <si>
+    <t>KHM006_16</t>
+  </si>
+  <si>
+    <t>KHM006_20</t>
+  </si>
+  <si>
+    <t>KHM006_21</t>
+  </si>
+  <si>
+    <t>KHM006_22</t>
+  </si>
+  <si>
+    <t>KHM006_23</t>
+  </si>
+  <si>
+    <t>KHM006_24</t>
+  </si>
+  <si>
+    <t>KHM006_6</t>
+  </si>
+  <si>
+    <t>KHM005_1</t>
+  </si>
+  <si>
+    <t>KHM005_2</t>
+  </si>
+  <si>
+    <t>KHM005_3</t>
+  </si>
+  <si>
+    <t>KHM005_4</t>
+  </si>
+  <si>
+    <t>KHM005_5</t>
+  </si>
+  <si>
+    <t>KHM005_6</t>
+  </si>
+  <si>
+    <t>KHM005_10</t>
+  </si>
+  <si>
+    <t>KHM005_11</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>No N2 atmosphere</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,41 +311,55 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF101010"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -314,9 +415,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -339,6 +437,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -558,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B26B618-C142-FA45-A955-CA0E251BDA1F}">
   <dimension ref="A1:X982"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -642,7 +743,7 @@
       <c r="H2" s="3">
         <v>0.58299000000000001</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="12">
         <v>1.2013560000000001</v>
       </c>
       <c r="J2" s="2"/>
@@ -808,7 +909,7 @@
       <c r="F6" s="3">
         <v>100</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <v>10.130000000000001</v>
       </c>
       <c r="H6" s="3">
@@ -849,7 +950,7 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>100</v>
       </c>
       <c r="G7" s="3">
@@ -858,7 +959,7 @@
       <c r="H7" s="3">
         <v>0.13125000000000001</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <v>0.26329999999999998</v>
       </c>
       <c r="J7" s="2"/>
@@ -893,7 +994,7 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>100</v>
       </c>
       <c r="G8" s="3">
@@ -902,7 +1003,7 @@
       <c r="H8" s="3">
         <v>0.89149</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <v>2.7753399999999999</v>
       </c>
       <c r="J8" s="2"/>
@@ -937,7 +1038,7 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>100</v>
       </c>
       <c r="G9" s="3">
@@ -946,7 +1047,7 @@
       <c r="H9" s="3">
         <v>1.6650000000000002E-2</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -979,7 +1080,7 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>100</v>
       </c>
       <c r="G10" s="3">
@@ -988,7 +1089,7 @@
       <c r="H10" s="3">
         <v>0.89090999999999998</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <v>2.59131</v>
       </c>
       <c r="J10" s="2"/>
@@ -1023,7 +1124,7 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>100</v>
       </c>
       <c r="G11" s="3">
@@ -1032,7 +1133,7 @@
       <c r="H11" s="3">
         <v>1.04965</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <v>2.5799799999999999</v>
       </c>
       <c r="J11" s="2"/>
@@ -1067,7 +1168,7 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>100</v>
       </c>
       <c r="G12" s="3">
@@ -1076,7 +1177,7 @@
       <c r="H12" s="3">
         <v>1.0869599999999999</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <v>3.1738200000000001</v>
       </c>
       <c r="J12" s="2"/>
@@ -1111,7 +1212,7 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>100</v>
       </c>
       <c r="G13" s="3">
@@ -1120,7 +1221,7 @@
       <c r="H13" s="3">
         <v>2.8660000000000001E-2</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1153,7 +1254,7 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>100</v>
       </c>
       <c r="G14" s="3">
@@ -1162,7 +1263,7 @@
       <c r="H14" s="3">
         <v>3.8940000000000002E-2</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>0.13150000000000001</v>
       </c>
       <c r="J14" s="2"/>
@@ -1197,7 +1298,7 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>100</v>
       </c>
       <c r="G15" s="3">
@@ -1206,7 +1307,7 @@
       <c r="H15" s="3">
         <v>0.23335</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <v>0.45116000000000001</v>
       </c>
       <c r="J15" s="2"/>
@@ -1241,7 +1342,7 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>100</v>
       </c>
       <c r="G16" s="3">
@@ -1250,7 +1351,7 @@
       <c r="H16" s="3">
         <v>1.1618599999999999</v>
       </c>
-      <c r="I16" s="13">
+      <c r="I16" s="12">
         <v>2.1266400000000001</v>
       </c>
       <c r="J16" s="2"/>
@@ -1285,7 +1386,7 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>100</v>
       </c>
       <c r="G17" s="3">
@@ -1294,7 +1395,7 @@
       <c r="H17" s="3">
         <v>1.38449</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <v>3.46821</v>
       </c>
       <c r="J17" s="2"/>
@@ -1329,7 +1430,7 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>100</v>
       </c>
       <c r="G18" s="3">
@@ -1338,7 +1439,7 @@
       <c r="H18" s="3">
         <v>1.5509200000000001</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>3.6858499999999998</v>
       </c>
       <c r="J18" s="2"/>
@@ -1373,7 +1474,7 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>100</v>
       </c>
       <c r="G19" s="3">
@@ -1382,7 +1483,7 @@
       <c r="H19" s="3">
         <v>1.33918</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <v>3.4456600000000002</v>
       </c>
       <c r="J19" s="2"/>
@@ -1417,7 +1518,7 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>100</v>
       </c>
       <c r="G20" s="3">
@@ -1426,7 +1527,7 @@
       <c r="H20" s="3">
         <v>1.4474</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="12">
         <v>2.6515499999999999</v>
       </c>
       <c r="J20" s="2"/>
@@ -1461,7 +1562,7 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>100</v>
       </c>
       <c r="G21" s="3">
@@ -1503,7 +1604,7 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>100</v>
       </c>
       <c r="G22" s="3">
@@ -26217,10 +26318,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X982"/>
+  <dimension ref="A1:X1009"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26231,7 +26332,8 @@
     <col min="7" max="7" width="33.33203125" customWidth="1"/>
     <col min="8" max="8" width="22.83203125" customWidth="1"/>
     <col min="9" max="9" width="24.33203125" customWidth="1"/>
-    <col min="10" max="24" width="8.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
+    <col min="11" max="24" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -26262,7 +26364,9 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -26279,37 +26383,35 @@
       <c r="X1" s="2"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3">
-        <v>850</v>
-      </c>
-      <c r="D2" s="3">
-        <v>500</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>85</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4">
-        <v>0.81927000000000005</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2.67374</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>100</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5.18</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -26321,35 +26423,33 @@
       <c r="X2" s="2"/>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3">
-        <v>850</v>
-      </c>
-      <c r="D3" s="3">
-        <v>500</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>85</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4">
-        <v>0.82974000000000003</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>100</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -26361,35 +26461,35 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3">
-        <v>850</v>
-      </c>
-      <c r="D4" s="3">
-        <v>500</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>85</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4">
-        <v>0.82974000000000003</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9.18</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -26400,38 +26500,34 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3">
-        <v>850</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3">
-        <v>75</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
-        <v>1.08646</v>
-      </c>
-      <c r="I5" s="4">
-        <v>3.04874</v>
-      </c>
+    <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>5.18</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -26442,74 +26538,70 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3">
-        <v>850</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
-        <v>75</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="3">
-        <v>1.0319199999999999</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+    <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>9.18</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
-        <v>850</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="A7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="2">
         <v>2000</v>
       </c>
-      <c r="E7" s="3">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3">
-        <v>65</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <v>1.15469</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -26521,31 +26613,33 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
-        <v>900</v>
-      </c>
-      <c r="D8" s="3">
-        <v>500</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="A8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5.38</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -26557,31 +26651,33 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3">
-        <v>900</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="A9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D9" s="2">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>65</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10.27</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -26592,32 +26688,34 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
-        <v>900</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3">
-        <v>55</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+    <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>500</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2.73</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -26629,39 +26727,33 @@
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="6">
-        <v>799</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="A11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D11" s="2">
         <v>500</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="2">
         <v>100</v>
       </c>
-      <c r="G11" s="6">
-        <v>5.24</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.58299000000000001</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1.2013560000000001</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="G11" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -26673,37 +26765,31 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
-        <v>799</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="A12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D12" s="2">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
-        <v>5.24</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.66993999999999998</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -26715,37 +26801,33 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="8">
-        <v>738</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D13" s="2">
         <v>1000</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="2">
         <v>100</v>
       </c>
-      <c r="G13" s="8">
-        <v>7.52</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0.52173999999999998</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="G13" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -26757,37 +26839,33 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8">
-        <v>738</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D14" s="2">
         <v>1000</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="2">
         <v>100</v>
       </c>
-      <c r="G14" s="8">
-        <v>7.52</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0.39785999999999999</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="G14" s="2">
+        <v>6.44</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -26799,31 +26877,33 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8">
-        <v>720</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D15" s="2">
         <v>1500</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="2">
         <v>100</v>
       </c>
-      <c r="G15" s="8">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="G15" s="2">
+        <v>5.36</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -26835,39 +26915,33 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6">
-        <v>716</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E16" s="6">
+      <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="2">
         <v>100</v>
       </c>
-      <c r="G16" s="6">
-        <v>10.71</v>
-      </c>
-      <c r="H16" s="9">
-        <v>1.45566</v>
-      </c>
-      <c r="I16" s="6">
-        <v>3.5665499999999999</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="G16" s="2">
+        <v>7.48</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -26879,37 +26953,33 @@
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="8">
-        <v>716</v>
-      </c>
-      <c r="D17" s="8">
-        <v>5000</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="A17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="2">
         <v>100</v>
       </c>
-      <c r="G17" s="8">
-        <v>14.89</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1.66109</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="G17" s="2">
+        <v>8.99</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -26921,37 +26991,31 @@
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="8">
-        <v>716</v>
-      </c>
-      <c r="D18" s="8">
-        <v>5000</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="2">
         <v>100</v>
       </c>
-      <c r="G18" s="8">
-        <v>14.89</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1.4100299999999999</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -26962,154 +27026,148 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6">
-        <v>700</v>
-      </c>
-      <c r="D19" s="6">
+    <row r="19" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D19" s="2">
         <v>2000</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="2">
         <v>100</v>
       </c>
-      <c r="G19" s="7">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1.42398</v>
-      </c>
-      <c r="I19" s="6">
-        <v>3.4708700000000001</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-    </row>
-    <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="8">
-        <v>700</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="G19" s="2">
+        <v>6.65</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D20" s="2">
         <v>2000</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="2">
         <v>100</v>
       </c>
-      <c r="G20" s="11">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1.48597</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-    </row>
-    <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
-        <v>850</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="G20" s="2">
+        <v>11.01</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="2">
         <v>5000</v>
       </c>
-      <c r="E21" s="3">
-        <v>15</v>
-      </c>
-      <c r="F21" s="3">
-        <v>55</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>100</v>
+      </c>
+      <c r="G21" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3">
-        <v>850</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D22" s="2">
         <v>5000</v>
       </c>
-      <c r="E22" s="3">
-        <v>15</v>
-      </c>
-      <c r="F22" s="3">
-        <v>45</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>100</v>
+      </c>
+      <c r="G22" s="2">
+        <v>11.02</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -27121,27 +27179,33 @@
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3">
-        <v>25</v>
-      </c>
-      <c r="F23" s="3">
-        <v>65</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>100</v>
+      </c>
+      <c r="G23" s="2">
+        <v>14.67</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -27153,27 +27217,33 @@
       <c r="X23" s="2"/>
     </row>
     <row r="24" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <v>25</v>
-      </c>
-      <c r="F24" s="3">
-        <v>55</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>100</v>
+      </c>
+      <c r="G24" s="2">
+        <v>17.38</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -27185,27 +27255,33 @@
       <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3">
-        <v>15</v>
-      </c>
-      <c r="F25" s="3">
-        <v>45</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>100</v>
+      </c>
+      <c r="G25" s="2">
+        <v>21.81</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -27216,22 +27292,34 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+    <row r="26" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>100</v>
+      </c>
+      <c r="G26" s="2">
+        <v>7.48</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -27242,22 +27330,34 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+    <row r="27" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>100</v>
+      </c>
+      <c r="G27" s="2">
+        <v>11.01</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -27270,38 +27370,32 @@
     </row>
     <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="3">
-        <v>750</v>
-      </c>
-      <c r="D28" s="3">
-        <v>500</v>
-      </c>
-      <c r="E28" s="3">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="2">
         <v>100</v>
       </c>
-      <c r="G28" s="3">
-        <v>4.51</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0.13125000000000001</v>
-      </c>
-      <c r="I28" s="13">
-        <v>0.26329999999999998</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="G28" s="2">
+        <v>5.38</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -27314,31 +27408,29 @@
     </row>
     <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="3">
-        <v>799</v>
-      </c>
-      <c r="D29" s="3">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2">
+        <v>850</v>
+      </c>
+      <c r="D29" s="2">
         <v>500</v>
       </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-      <c r="F29" s="12">
-        <v>100</v>
-      </c>
-      <c r="G29" s="3">
-        <v>5.37</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0.89149</v>
-      </c>
-      <c r="I29" s="13">
-        <v>2.7753399999999999</v>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>85</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="4">
+        <v>0.81927000000000005</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2.67374</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -27358,30 +27450,28 @@
     </row>
     <row r="30" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="3">
-        <v>720</v>
-      </c>
-      <c r="D30" s="3">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2">
+        <v>850</v>
+      </c>
+      <c r="D30" s="2">
         <v>500</v>
       </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-      <c r="F30" s="12">
-        <v>100</v>
-      </c>
-      <c r="G30" s="3">
-        <v>4.07</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1.6650000000000002E-2</v>
-      </c>
-      <c r="I30" s="11"/>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>85</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="4">
+        <v>0.82974000000000003</v>
+      </c>
+      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -27400,32 +27490,28 @@
     </row>
     <row r="31" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="3">
-        <v>770</v>
-      </c>
-      <c r="D31" s="3">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2">
+        <v>850</v>
+      </c>
+      <c r="D31" s="2">
         <v>500</v>
       </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="12">
-        <v>100</v>
-      </c>
-      <c r="G31" s="3">
-        <v>4.88</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0.89090999999999998</v>
-      </c>
-      <c r="I31" s="13">
-        <v>2.59131</v>
-      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>85</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="4">
+        <v>0.82974000000000003</v>
+      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -27442,33 +27528,31 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="3">
-        <v>700</v>
-      </c>
-      <c r="D32" s="3">
+        <v>13</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <v>850</v>
+      </c>
+      <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12">
-        <v>100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6.76</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1.04965</v>
-      </c>
-      <c r="I32" s="13">
-        <v>2.5799799999999999</v>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>75</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2">
+        <v>1.08646</v>
+      </c>
+      <c r="I32" s="4">
+        <v>3.04874</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -27486,76 +27570,68 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="3">
-        <v>738</v>
-      </c>
-      <c r="D33" s="3">
+        <v>13</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2">
+        <v>850</v>
+      </c>
+      <c r="D33" s="2">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="12">
-        <v>100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>7.77</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1.0869599999999999</v>
-      </c>
-      <c r="I33" s="13">
-        <v>3.1738200000000001</v>
-      </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>75</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2">
+        <v>1.0319199999999999</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
     </row>
     <row r="34" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2">
+        <v>850</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="2">
         <v>10</v>
       </c>
-      <c r="C34" s="3">
-        <v>670</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="12">
-        <v>100</v>
-      </c>
-      <c r="G34" s="3">
-        <v>6.02</v>
-      </c>
-      <c r="H34" s="3">
-        <v>2.8660000000000001E-2</v>
-      </c>
-      <c r="I34" s="11"/>
+      <c r="F34" s="2">
+        <v>65</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2">
+        <v>1.15469</v>
+      </c>
+      <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -27574,32 +27650,24 @@
     </row>
     <row r="35" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="3">
-        <v>650</v>
-      </c>
-      <c r="D35" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="12">
-        <v>100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>8.73</v>
-      </c>
-      <c r="H35" s="3">
-        <v>3.8940000000000002E-2</v>
-      </c>
-      <c r="I35" s="13">
-        <v>0.13150000000000001</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2">
+        <v>900</v>
+      </c>
+      <c r="D35" s="2">
+        <v>500</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2">
+        <v>85</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -27618,32 +27686,24 @@
     </row>
     <row r="36" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="3">
-        <v>670</v>
-      </c>
-      <c r="D36" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="12">
-        <v>100</v>
-      </c>
-      <c r="G36" s="3">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0.23335</v>
-      </c>
-      <c r="I36" s="13">
-        <v>0.45116000000000001</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2">
+        <v>900</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>65</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -27660,34 +27720,26 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="3">
-        <v>700</v>
-      </c>
-      <c r="D37" s="3">
+        <v>17</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2">
+        <v>900</v>
+      </c>
+      <c r="D37" s="2">
         <v>2000</v>
       </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="12">
-        <v>100</v>
-      </c>
-      <c r="G37" s="3">
-        <v>10.48</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1.1618599999999999</v>
-      </c>
-      <c r="I37" s="13">
-        <v>2.1266400000000001</v>
-      </c>
+      <c r="E37" s="2">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2">
+        <v>55</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -27705,32 +27757,32 @@
       <c r="X37" s="2"/>
     </row>
     <row r="38" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="3">
-        <v>716</v>
-      </c>
-      <c r="D38" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="A38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="8">
+        <v>799</v>
+      </c>
+      <c r="D38" s="8">
+        <v>500</v>
+      </c>
+      <c r="E38" s="8">
         <v>1</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="8">
         <v>100</v>
       </c>
-      <c r="G38" s="3">
-        <v>11.01</v>
-      </c>
-      <c r="H38" s="3">
-        <v>1.38449</v>
-      </c>
-      <c r="I38" s="13">
-        <v>3.46821</v>
+      <c r="G38" s="8">
+        <v>5.24</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0.58299000000000001</v>
+      </c>
+      <c r="I38" s="6">
+        <v>1.2013560000000001</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -27750,25 +27802,30 @@
     </row>
     <row r="39" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="3">
-        <v>620</v>
-      </c>
-      <c r="D39" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E39" s="3">
+        <v>18</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2">
+        <v>799</v>
+      </c>
+      <c r="D39" s="2">
+        <v>500</v>
+      </c>
+      <c r="E39" s="2">
         <v>1</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="2">
         <v>100</v>
       </c>
-      <c r="G39" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="G39" s="2">
+        <v>5.24</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.66993999999999998</v>
+      </c>
+      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -27786,33 +27843,31 @@
       <c r="X39" s="2"/>
     </row>
     <row r="40" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="3">
-        <v>700</v>
-      </c>
-      <c r="D40" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="A40" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="14">
+        <v>738</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E40" s="14">
         <v>1</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="14">
         <v>100</v>
       </c>
-      <c r="G40" s="3">
-        <v>14.71</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1.5509200000000001</v>
-      </c>
-      <c r="I40" s="13">
-        <v>3.6858499999999998</v>
-      </c>
+      <c r="G40" s="14">
+        <v>7.52</v>
+      </c>
+      <c r="H40" s="14">
+        <v>0.52173999999999998</v>
+      </c>
+      <c r="I40" s="14"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -27830,33 +27885,31 @@
       <c r="X40" s="2"/>
     </row>
     <row r="41" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="3">
-        <v>716</v>
-      </c>
-      <c r="D41" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="A41" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="14">
+        <v>738</v>
+      </c>
+      <c r="D41" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="14">
         <v>1</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="14">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>15.44</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1.33918</v>
-      </c>
-      <c r="I41" s="13">
-        <v>3.4456600000000002</v>
-      </c>
+      <c r="G41" s="14">
+        <v>7.52</v>
+      </c>
+      <c r="H41" s="14">
+        <v>0.39785999999999999</v>
+      </c>
+      <c r="I41" s="14"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -27874,33 +27927,25 @@
       <c r="X41" s="2"/>
     </row>
     <row r="42" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="3">
-        <v>670</v>
-      </c>
-      <c r="D42" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14">
+        <v>720</v>
+      </c>
+      <c r="D42" s="14">
+        <v>1500</v>
+      </c>
+      <c r="E42" s="14">
         <v>1</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="14">
         <v>100</v>
       </c>
-      <c r="G42" s="3">
-        <v>13.37</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1.4474</v>
-      </c>
-      <c r="I42" s="13">
-        <v>2.6515499999999999</v>
-      </c>
+      <c r="G42" s="14">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -27918,31 +27963,33 @@
       <c r="X42" s="2"/>
     </row>
     <row r="43" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="3">
-        <v>650</v>
-      </c>
-      <c r="D43" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="A43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="8">
+        <v>716</v>
+      </c>
+      <c r="D43" s="8">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="8">
         <v>1</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="8">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>3.6549999999999999E-2</v>
-      </c>
-      <c r="I43" s="8"/>
+      <c r="G43" s="8">
+        <v>10.71</v>
+      </c>
+      <c r="H43" s="8">
+        <v>1.45566</v>
+      </c>
+      <c r="I43" s="8">
+        <v>3.5665499999999999</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -27960,31 +28007,31 @@
       <c r="X43" s="2"/>
     </row>
     <row r="44" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="3">
-        <v>620</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="C44" s="14">
+        <v>716</v>
+      </c>
+      <c r="D44" s="14">
         <v>5000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="14">
         <v>1</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="14">
         <v>100</v>
       </c>
-      <c r="G44" s="3">
-        <v>11.29</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3.0370000000000001E-2</v>
-      </c>
-      <c r="I44" s="8"/>
+      <c r="G44" s="14">
+        <v>14.89</v>
+      </c>
+      <c r="H44" s="14">
+        <v>1.66109</v>
+      </c>
+      <c r="I44" s="14"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -28002,27 +28049,31 @@
       <c r="X44" s="2"/>
     </row>
     <row r="45" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3">
-        <v>850</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="A45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="14">
+        <v>716</v>
+      </c>
+      <c r="D45" s="14">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
-        <v>20</v>
-      </c>
-      <c r="F45" s="12">
-        <v>55</v>
-      </c>
-      <c r="G45" s="3">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="E45" s="14">
+        <v>1</v>
+      </c>
+      <c r="F45" s="14">
+        <v>100</v>
+      </c>
+      <c r="G45" s="14">
+        <v>14.89</v>
+      </c>
+      <c r="H45" s="9">
+        <v>1.4100299999999999</v>
+      </c>
+      <c r="I45" s="14"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -28039,142 +28090,148 @@
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3">
-        <v>850</v>
-      </c>
-      <c r="D46" s="3">
+    <row r="46" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="8">
+        <v>700</v>
+      </c>
+      <c r="D46" s="8">
         <v>2000</v>
       </c>
-      <c r="E46" s="3">
-        <v>8</v>
-      </c>
-      <c r="F46" s="12">
-        <v>55</v>
-      </c>
-      <c r="G46" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="E46" s="8">
+        <v>1</v>
+      </c>
+      <c r="F46" s="8">
+        <v>100</v>
+      </c>
+      <c r="G46" s="6">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H46" s="8">
+        <v>1.42398</v>
+      </c>
+      <c r="I46" s="8">
+        <v>3.4708700000000001</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-    </row>
-    <row r="47" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3">
-        <v>850</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>4</v>
-      </c>
-      <c r="F47" s="12">
-        <v>55</v>
-      </c>
-      <c r="G47" s="3">
-        <v>6.18</v>
-      </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+    </row>
+    <row r="47" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="14">
+        <v>700</v>
+      </c>
+      <c r="D47" s="14">
+        <v>2000</v>
+      </c>
+      <c r="E47" s="14">
+        <v>1</v>
+      </c>
+      <c r="F47" s="14">
+        <v>100</v>
+      </c>
+      <c r="G47" s="10">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H47" s="14">
+        <v>1.48597</v>
+      </c>
+      <c r="I47" s="14"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
     </row>
     <row r="48" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2">
+        <v>850</v>
+      </c>
+      <c r="D48" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E48" s="2">
+        <v>15</v>
+      </c>
+      <c r="F48" s="2">
         <v>55</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3">
-        <v>850</v>
-      </c>
-      <c r="D48" s="3">
-        <v>500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2</v>
-      </c>
-      <c r="F48" s="12">
-        <v>55</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3.23</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
     </row>
     <row r="49" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3">
+        <v>25</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2">
         <v>850</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>5000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>15</v>
       </c>
-      <c r="F49" s="12">
-        <v>55</v>
-      </c>
-      <c r="G49" s="3">
-        <v>18</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="F49" s="2">
+        <v>45</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -28193,26 +28250,20 @@
     </row>
     <row r="50" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3">
-        <v>850</v>
-      </c>
-      <c r="D50" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E50" s="3">
+        <v>26</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
         <v>25</v>
       </c>
-      <c r="F50" s="12">
-        <v>55</v>
-      </c>
-      <c r="G50" s="3">
-        <v>17.61</v>
-      </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="F50" s="2">
+        <v>65</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -28231,26 +28282,20 @@
     </row>
     <row r="51" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3">
-        <v>600</v>
-      </c>
-      <c r="D51" s="3">
-        <v>40000</v>
-      </c>
-      <c r="E51" s="12">
-        <v>40</v>
-      </c>
-      <c r="F51" s="12">
-        <v>10</v>
-      </c>
-      <c r="G51" s="3">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
+        <v>25</v>
+      </c>
+      <c r="F51" s="2">
+        <v>55</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -28269,26 +28314,20 @@
     </row>
     <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3">
-        <v>600</v>
-      </c>
-      <c r="D52" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E52" s="12">
-        <v>1</v>
-      </c>
-      <c r="F52" s="12">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>7.28</v>
-      </c>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2">
+        <v>15</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -28307,8 +28346,8 @@
     </row>
     <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -28358,15 +28397,33 @@
       <c r="X54" s="2"/>
     </row>
     <row r="55" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="A55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="3">
+        <v>750</v>
+      </c>
+      <c r="D55" s="3">
+        <v>500</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="11">
+        <v>100</v>
+      </c>
+      <c r="G55" s="3">
+        <v>4.51</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0.13125000000000001</v>
+      </c>
+      <c r="I55" s="12">
+        <v>0.26329999999999998</v>
+      </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -28384,15 +28441,33 @@
       <c r="X55" s="2"/>
     </row>
     <row r="56" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="A56" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="3">
+        <v>799</v>
+      </c>
+      <c r="D56" s="3">
+        <v>500</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1</v>
+      </c>
+      <c r="F56" s="11">
+        <v>100</v>
+      </c>
+      <c r="G56" s="3">
+        <v>5.37</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0.89149</v>
+      </c>
+      <c r="I56" s="12">
+        <v>2.7753399999999999</v>
+      </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -28410,15 +28485,31 @@
       <c r="X56" s="2"/>
     </row>
     <row r="57" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="A57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="3">
+        <v>720</v>
+      </c>
+      <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="11">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1.6650000000000002E-2</v>
+      </c>
+      <c r="I57" s="10"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -28436,15 +28527,33 @@
       <c r="X57" s="2"/>
     </row>
     <row r="58" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3">
+        <v>770</v>
+      </c>
+      <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" s="11">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>4.88</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0.89090999999999998</v>
+      </c>
+      <c r="I58" s="12">
+        <v>2.59131</v>
+      </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -28462,15 +28571,33 @@
       <c r="X58" s="2"/>
     </row>
     <row r="59" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="3">
+        <v>700</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="11">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>6.76</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1.04965</v>
+      </c>
+      <c r="I59" s="12">
+        <v>2.5799799999999999</v>
+      </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -28488,15 +28615,33 @@
       <c r="X59" s="2"/>
     </row>
     <row r="60" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="A60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="3">
+        <v>738</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="11">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>7.77</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1.0869599999999999</v>
+      </c>
+      <c r="I60" s="12">
+        <v>3.1738200000000001</v>
+      </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -28514,15 +28659,31 @@
       <c r="X60" s="2"/>
     </row>
     <row r="61" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="A61" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="3">
+        <v>670</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="11">
+        <v>100</v>
+      </c>
+      <c r="G61" s="3">
+        <v>6.02</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2.8660000000000001E-2</v>
+      </c>
+      <c r="I61" s="10"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -28540,15 +28701,33 @@
       <c r="X61" s="2"/>
     </row>
     <row r="62" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="A62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="3">
+        <v>650</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="11">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>8.73</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3.8940000000000002E-2</v>
+      </c>
+      <c r="I62" s="12">
+        <v>0.13150000000000001</v>
+      </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -28566,15 +28745,33 @@
       <c r="X62" s="2"/>
     </row>
     <row r="63" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="A63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="3">
+        <v>670</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="11">
+        <v>100</v>
+      </c>
+      <c r="G63" s="3">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0.23335</v>
+      </c>
+      <c r="I63" s="12">
+        <v>0.45116000000000001</v>
+      </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -28592,15 +28789,33 @@
       <c r="X63" s="2"/>
     </row>
     <row r="64" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="A64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="3">
+        <v>700</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="11">
+        <v>100</v>
+      </c>
+      <c r="G64" s="3">
+        <v>10.48</v>
+      </c>
+      <c r="H64" s="3">
+        <v>1.1618599999999999</v>
+      </c>
+      <c r="I64" s="12">
+        <v>2.1266400000000001</v>
+      </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -28618,15 +28833,33 @@
       <c r="X64" s="2"/>
     </row>
     <row r="65" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+      <c r="A65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="3">
+        <v>716</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="11">
+        <v>100</v>
+      </c>
+      <c r="G65" s="3">
+        <v>11.01</v>
+      </c>
+      <c r="H65" s="3">
+        <v>1.38449</v>
+      </c>
+      <c r="I65" s="12">
+        <v>3.46821</v>
+      </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -28644,15 +28877,26 @@
       <c r="X65" s="2"/>
     </row>
     <row r="66" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="A66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="3">
+        <v>620</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="11">
+        <v>100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -28670,15 +28914,33 @@
       <c r="X66" s="2"/>
     </row>
     <row r="67" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+      <c r="A67" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" s="3">
+        <v>700</v>
+      </c>
+      <c r="D67" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="11">
+        <v>100</v>
+      </c>
+      <c r="G67" s="3">
+        <v>14.71</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1.5509200000000001</v>
+      </c>
+      <c r="I67" s="12">
+        <v>3.6858499999999998</v>
+      </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -28696,15 +28958,33 @@
       <c r="X67" s="2"/>
     </row>
     <row r="68" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="3">
+        <v>716</v>
+      </c>
+      <c r="D68" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="11">
+        <v>100</v>
+      </c>
+      <c r="G68" s="3">
+        <v>15.44</v>
+      </c>
+      <c r="H68" s="3">
+        <v>1.33918</v>
+      </c>
+      <c r="I68" s="12">
+        <v>3.4456600000000002</v>
+      </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -28722,15 +29002,33 @@
       <c r="X68" s="2"/>
     </row>
     <row r="69" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+      <c r="A69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="3">
+        <v>670</v>
+      </c>
+      <c r="D69" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="11">
+        <v>100</v>
+      </c>
+      <c r="G69" s="3">
+        <v>13.37</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1.4474</v>
+      </c>
+      <c r="I69" s="12">
+        <v>2.6515499999999999</v>
+      </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -28748,15 +29046,31 @@
       <c r="X69" s="2"/>
     </row>
     <row r="70" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="A70" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="3">
+        <v>650</v>
+      </c>
+      <c r="D70" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="11">
+        <v>100</v>
+      </c>
+      <c r="G70" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3.6549999999999999E-2</v>
+      </c>
+      <c r="I70" s="7"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -28774,15 +29088,31 @@
       <c r="X70" s="2"/>
     </row>
     <row r="71" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="A71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="3">
+        <v>620</v>
+      </c>
+      <c r="D71" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="11">
+        <v>100</v>
+      </c>
+      <c r="G71" s="3">
+        <v>11.29</v>
+      </c>
+      <c r="H71" s="3">
+        <v>3.0370000000000001E-2</v>
+      </c>
+      <c r="I71" s="7"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -28800,15 +29130,27 @@
       <c r="X71" s="2"/>
     </row>
     <row r="72" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="A72" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3">
+        <v>850</v>
+      </c>
+      <c r="D72" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>20</v>
+      </c>
+      <c r="F72" s="11">
+        <v>55</v>
+      </c>
+      <c r="G72" s="3">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -28826,15 +29168,27 @@
       <c r="X72" s="2"/>
     </row>
     <row r="73" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
+      <c r="A73" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3">
+        <v>850</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E73" s="3">
+        <v>8</v>
+      </c>
+      <c r="F73" s="11">
+        <v>55</v>
+      </c>
+      <c r="G73" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -28852,15 +29206,27 @@
       <c r="X73" s="2"/>
     </row>
     <row r="74" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
+      <c r="A74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3">
+        <v>850</v>
+      </c>
+      <c r="D74" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E74" s="3">
+        <v>4</v>
+      </c>
+      <c r="F74" s="11">
+        <v>55</v>
+      </c>
+      <c r="G74" s="3">
+        <v>6.18</v>
+      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -28878,15 +29244,27 @@
       <c r="X74" s="2"/>
     </row>
     <row r="75" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
+      <c r="A75" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3">
+        <v>850</v>
+      </c>
+      <c r="D75" s="3">
+        <v>500</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2</v>
+      </c>
+      <c r="F75" s="11">
+        <v>55</v>
+      </c>
+      <c r="G75" s="3">
+        <v>3.23</v>
+      </c>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -28904,15 +29282,27 @@
       <c r="X75" s="2"/>
     </row>
     <row r="76" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
+      <c r="A76" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3">
+        <v>850</v>
+      </c>
+      <c r="D76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>15</v>
+      </c>
+      <c r="F76" s="11">
+        <v>55</v>
+      </c>
+      <c r="G76" s="3">
+        <v>18</v>
+      </c>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -28930,15 +29320,27 @@
       <c r="X76" s="2"/>
     </row>
     <row r="77" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
+      <c r="A77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3">
+        <v>850</v>
+      </c>
+      <c r="D77" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E77" s="3">
+        <v>25</v>
+      </c>
+      <c r="F77" s="11">
+        <v>55</v>
+      </c>
+      <c r="G77" s="3">
+        <v>17.61</v>
+      </c>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -28956,15 +29358,27 @@
       <c r="X77" s="2"/>
     </row>
     <row r="78" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
+      <c r="A78" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3">
+        <v>600</v>
+      </c>
+      <c r="D78" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E78" s="11">
+        <v>40</v>
+      </c>
+      <c r="F78" s="11">
+        <v>10</v>
+      </c>
+      <c r="G78" s="3">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -28982,15 +29396,27 @@
       <c r="X78" s="2"/>
     </row>
     <row r="79" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
+      <c r="A79" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3">
+        <v>600</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E79" s="11">
+        <v>1</v>
+      </c>
+      <c r="F79" s="11">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3">
+        <v>7.28</v>
+      </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -29009,8 +29435,8 @@
     </row>
     <row r="80" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -52485,7 +52911,710 @@
       <c r="W982" s="2"/>
       <c r="X982" s="2"/>
     </row>
+    <row r="983" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A983" s="2"/>
+      <c r="B983" s="2"/>
+      <c r="C983" s="2"/>
+      <c r="D983" s="2"/>
+      <c r="E983" s="2"/>
+      <c r="F983" s="2"/>
+      <c r="G983" s="2"/>
+      <c r="H983" s="2"/>
+      <c r="I983" s="2"/>
+      <c r="J983" s="2"/>
+      <c r="K983" s="2"/>
+      <c r="L983" s="2"/>
+      <c r="M983" s="2"/>
+      <c r="N983" s="2"/>
+      <c r="O983" s="2"/>
+      <c r="P983" s="2"/>
+      <c r="Q983" s="2"/>
+      <c r="R983" s="2"/>
+      <c r="S983" s="2"/>
+      <c r="T983" s="2"/>
+      <c r="U983" s="2"/>
+      <c r="V983" s="2"/>
+      <c r="W983" s="2"/>
+      <c r="X983" s="2"/>
+    </row>
+    <row r="984" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A984" s="2"/>
+      <c r="B984" s="2"/>
+      <c r="C984" s="2"/>
+      <c r="D984" s="2"/>
+      <c r="E984" s="2"/>
+      <c r="F984" s="2"/>
+      <c r="G984" s="2"/>
+      <c r="H984" s="2"/>
+      <c r="I984" s="2"/>
+      <c r="J984" s="2"/>
+      <c r="K984" s="2"/>
+      <c r="L984" s="2"/>
+      <c r="M984" s="2"/>
+      <c r="N984" s="2"/>
+      <c r="O984" s="2"/>
+      <c r="P984" s="2"/>
+      <c r="Q984" s="2"/>
+      <c r="R984" s="2"/>
+      <c r="S984" s="2"/>
+      <c r="T984" s="2"/>
+      <c r="U984" s="2"/>
+      <c r="V984" s="2"/>
+      <c r="W984" s="2"/>
+      <c r="X984" s="2"/>
+    </row>
+    <row r="985" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A985" s="2"/>
+      <c r="B985" s="2"/>
+      <c r="C985" s="2"/>
+      <c r="D985" s="2"/>
+      <c r="E985" s="2"/>
+      <c r="F985" s="2"/>
+      <c r="G985" s="2"/>
+      <c r="H985" s="2"/>
+      <c r="I985" s="2"/>
+      <c r="J985" s="2"/>
+      <c r="K985" s="2"/>
+      <c r="L985" s="2"/>
+      <c r="M985" s="2"/>
+      <c r="N985" s="2"/>
+      <c r="O985" s="2"/>
+      <c r="P985" s="2"/>
+      <c r="Q985" s="2"/>
+      <c r="R985" s="2"/>
+      <c r="S985" s="2"/>
+      <c r="T985" s="2"/>
+      <c r="U985" s="2"/>
+      <c r="V985" s="2"/>
+      <c r="W985" s="2"/>
+      <c r="X985" s="2"/>
+    </row>
+    <row r="986" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A986" s="2"/>
+      <c r="B986" s="2"/>
+      <c r="C986" s="2"/>
+      <c r="D986" s="2"/>
+      <c r="E986" s="2"/>
+      <c r="F986" s="2"/>
+      <c r="G986" s="2"/>
+      <c r="H986" s="2"/>
+      <c r="I986" s="2"/>
+      <c r="J986" s="2"/>
+      <c r="K986" s="2"/>
+      <c r="L986" s="2"/>
+      <c r="M986" s="2"/>
+      <c r="N986" s="2"/>
+      <c r="O986" s="2"/>
+      <c r="P986" s="2"/>
+      <c r="Q986" s="2"/>
+      <c r="R986" s="2"/>
+      <c r="S986" s="2"/>
+      <c r="T986" s="2"/>
+      <c r="U986" s="2"/>
+      <c r="V986" s="2"/>
+      <c r="W986" s="2"/>
+      <c r="X986" s="2"/>
+    </row>
+    <row r="987" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A987" s="2"/>
+      <c r="B987" s="2"/>
+      <c r="C987" s="2"/>
+      <c r="D987" s="2"/>
+      <c r="E987" s="2"/>
+      <c r="F987" s="2"/>
+      <c r="G987" s="2"/>
+      <c r="H987" s="2"/>
+      <c r="I987" s="2"/>
+      <c r="J987" s="2"/>
+      <c r="K987" s="2"/>
+      <c r="L987" s="2"/>
+      <c r="M987" s="2"/>
+      <c r="N987" s="2"/>
+      <c r="O987" s="2"/>
+      <c r="P987" s="2"/>
+      <c r="Q987" s="2"/>
+      <c r="R987" s="2"/>
+      <c r="S987" s="2"/>
+      <c r="T987" s="2"/>
+      <c r="U987" s="2"/>
+      <c r="V987" s="2"/>
+      <c r="W987" s="2"/>
+      <c r="X987" s="2"/>
+    </row>
+    <row r="988" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A988" s="2"/>
+      <c r="B988" s="2"/>
+      <c r="C988" s="2"/>
+      <c r="D988" s="2"/>
+      <c r="E988" s="2"/>
+      <c r="F988" s="2"/>
+      <c r="G988" s="2"/>
+      <c r="H988" s="2"/>
+      <c r="I988" s="2"/>
+      <c r="J988" s="2"/>
+      <c r="K988" s="2"/>
+      <c r="L988" s="2"/>
+      <c r="M988" s="2"/>
+      <c r="N988" s="2"/>
+      <c r="O988" s="2"/>
+      <c r="P988" s="2"/>
+      <c r="Q988" s="2"/>
+      <c r="R988" s="2"/>
+      <c r="S988" s="2"/>
+      <c r="T988" s="2"/>
+      <c r="U988" s="2"/>
+      <c r="V988" s="2"/>
+      <c r="W988" s="2"/>
+      <c r="X988" s="2"/>
+    </row>
+    <row r="989" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A989" s="2"/>
+      <c r="B989" s="2"/>
+      <c r="C989" s="2"/>
+      <c r="D989" s="2"/>
+      <c r="E989" s="2"/>
+      <c r="F989" s="2"/>
+      <c r="G989" s="2"/>
+      <c r="H989" s="2"/>
+      <c r="I989" s="2"/>
+      <c r="J989" s="2"/>
+      <c r="K989" s="2"/>
+      <c r="L989" s="2"/>
+      <c r="M989" s="2"/>
+      <c r="N989" s="2"/>
+      <c r="O989" s="2"/>
+      <c r="P989" s="2"/>
+      <c r="Q989" s="2"/>
+      <c r="R989" s="2"/>
+      <c r="S989" s="2"/>
+      <c r="T989" s="2"/>
+      <c r="U989" s="2"/>
+      <c r="V989" s="2"/>
+      <c r="W989" s="2"/>
+      <c r="X989" s="2"/>
+    </row>
+    <row r="990" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A990" s="2"/>
+      <c r="B990" s="2"/>
+      <c r="C990" s="2"/>
+      <c r="D990" s="2"/>
+      <c r="E990" s="2"/>
+      <c r="F990" s="2"/>
+      <c r="G990" s="2"/>
+      <c r="H990" s="2"/>
+      <c r="I990" s="2"/>
+      <c r="J990" s="2"/>
+      <c r="K990" s="2"/>
+      <c r="L990" s="2"/>
+      <c r="M990" s="2"/>
+      <c r="N990" s="2"/>
+      <c r="O990" s="2"/>
+      <c r="P990" s="2"/>
+      <c r="Q990" s="2"/>
+      <c r="R990" s="2"/>
+      <c r="S990" s="2"/>
+      <c r="T990" s="2"/>
+      <c r="U990" s="2"/>
+      <c r="V990" s="2"/>
+      <c r="W990" s="2"/>
+      <c r="X990" s="2"/>
+    </row>
+    <row r="991" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A991" s="2"/>
+      <c r="B991" s="2"/>
+      <c r="C991" s="2"/>
+      <c r="D991" s="2"/>
+      <c r="E991" s="2"/>
+      <c r="F991" s="2"/>
+      <c r="G991" s="2"/>
+      <c r="H991" s="2"/>
+      <c r="I991" s="2"/>
+      <c r="J991" s="2"/>
+      <c r="K991" s="2"/>
+      <c r="L991" s="2"/>
+      <c r="M991" s="2"/>
+      <c r="N991" s="2"/>
+      <c r="O991" s="2"/>
+      <c r="P991" s="2"/>
+      <c r="Q991" s="2"/>
+      <c r="R991" s="2"/>
+      <c r="S991" s="2"/>
+      <c r="T991" s="2"/>
+      <c r="U991" s="2"/>
+      <c r="V991" s="2"/>
+      <c r="W991" s="2"/>
+      <c r="X991" s="2"/>
+    </row>
+    <row r="992" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A992" s="2"/>
+      <c r="B992" s="2"/>
+      <c r="C992" s="2"/>
+      <c r="D992" s="2"/>
+      <c r="E992" s="2"/>
+      <c r="F992" s="2"/>
+      <c r="G992" s="2"/>
+      <c r="H992" s="2"/>
+      <c r="I992" s="2"/>
+      <c r="J992" s="2"/>
+      <c r="K992" s="2"/>
+      <c r="L992" s="2"/>
+      <c r="M992" s="2"/>
+      <c r="N992" s="2"/>
+      <c r="O992" s="2"/>
+      <c r="P992" s="2"/>
+      <c r="Q992" s="2"/>
+      <c r="R992" s="2"/>
+      <c r="S992" s="2"/>
+      <c r="T992" s="2"/>
+      <c r="U992" s="2"/>
+      <c r="V992" s="2"/>
+      <c r="W992" s="2"/>
+      <c r="X992" s="2"/>
+    </row>
+    <row r="993" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A993" s="2"/>
+      <c r="B993" s="2"/>
+      <c r="C993" s="2"/>
+      <c r="D993" s="2"/>
+      <c r="E993" s="2"/>
+      <c r="F993" s="2"/>
+      <c r="G993" s="2"/>
+      <c r="H993" s="2"/>
+      <c r="I993" s="2"/>
+      <c r="J993" s="2"/>
+      <c r="K993" s="2"/>
+      <c r="L993" s="2"/>
+      <c r="M993" s="2"/>
+      <c r="N993" s="2"/>
+      <c r="O993" s="2"/>
+      <c r="P993" s="2"/>
+      <c r="Q993" s="2"/>
+      <c r="R993" s="2"/>
+      <c r="S993" s="2"/>
+      <c r="T993" s="2"/>
+      <c r="U993" s="2"/>
+      <c r="V993" s="2"/>
+      <c r="W993" s="2"/>
+      <c r="X993" s="2"/>
+    </row>
+    <row r="994" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A994" s="2"/>
+      <c r="B994" s="2"/>
+      <c r="C994" s="2"/>
+      <c r="D994" s="2"/>
+      <c r="E994" s="2"/>
+      <c r="F994" s="2"/>
+      <c r="G994" s="2"/>
+      <c r="H994" s="2"/>
+      <c r="I994" s="2"/>
+      <c r="J994" s="2"/>
+      <c r="K994" s="2"/>
+      <c r="L994" s="2"/>
+      <c r="M994" s="2"/>
+      <c r="N994" s="2"/>
+      <c r="O994" s="2"/>
+      <c r="P994" s="2"/>
+      <c r="Q994" s="2"/>
+      <c r="R994" s="2"/>
+      <c r="S994" s="2"/>
+      <c r="T994" s="2"/>
+      <c r="U994" s="2"/>
+      <c r="V994" s="2"/>
+      <c r="W994" s="2"/>
+      <c r="X994" s="2"/>
+    </row>
+    <row r="995" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A995" s="2"/>
+      <c r="B995" s="2"/>
+      <c r="C995" s="2"/>
+      <c r="D995" s="2"/>
+      <c r="E995" s="2"/>
+      <c r="F995" s="2"/>
+      <c r="G995" s="2"/>
+      <c r="H995" s="2"/>
+      <c r="I995" s="2"/>
+      <c r="J995" s="2"/>
+      <c r="K995" s="2"/>
+      <c r="L995" s="2"/>
+      <c r="M995" s="2"/>
+      <c r="N995" s="2"/>
+      <c r="O995" s="2"/>
+      <c r="P995" s="2"/>
+      <c r="Q995" s="2"/>
+      <c r="R995" s="2"/>
+      <c r="S995" s="2"/>
+      <c r="T995" s="2"/>
+      <c r="U995" s="2"/>
+      <c r="V995" s="2"/>
+      <c r="W995" s="2"/>
+      <c r="X995" s="2"/>
+    </row>
+    <row r="996" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A996" s="2"/>
+      <c r="B996" s="2"/>
+      <c r="C996" s="2"/>
+      <c r="D996" s="2"/>
+      <c r="E996" s="2"/>
+      <c r="F996" s="2"/>
+      <c r="G996" s="2"/>
+      <c r="H996" s="2"/>
+      <c r="I996" s="2"/>
+      <c r="J996" s="2"/>
+      <c r="K996" s="2"/>
+      <c r="L996" s="2"/>
+      <c r="M996" s="2"/>
+      <c r="N996" s="2"/>
+      <c r="O996" s="2"/>
+      <c r="P996" s="2"/>
+      <c r="Q996" s="2"/>
+      <c r="R996" s="2"/>
+      <c r="S996" s="2"/>
+      <c r="T996" s="2"/>
+      <c r="U996" s="2"/>
+      <c r="V996" s="2"/>
+      <c r="W996" s="2"/>
+      <c r="X996" s="2"/>
+    </row>
+    <row r="997" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A997" s="2"/>
+      <c r="B997" s="2"/>
+      <c r="C997" s="2"/>
+      <c r="D997" s="2"/>
+      <c r="E997" s="2"/>
+      <c r="F997" s="2"/>
+      <c r="G997" s="2"/>
+      <c r="H997" s="2"/>
+      <c r="I997" s="2"/>
+      <c r="J997" s="2"/>
+      <c r="K997" s="2"/>
+      <c r="L997" s="2"/>
+      <c r="M997" s="2"/>
+      <c r="N997" s="2"/>
+      <c r="O997" s="2"/>
+      <c r="P997" s="2"/>
+      <c r="Q997" s="2"/>
+      <c r="R997" s="2"/>
+      <c r="S997" s="2"/>
+      <c r="T997" s="2"/>
+      <c r="U997" s="2"/>
+      <c r="V997" s="2"/>
+      <c r="W997" s="2"/>
+      <c r="X997" s="2"/>
+    </row>
+    <row r="998" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A998" s="2"/>
+      <c r="B998" s="2"/>
+      <c r="C998" s="2"/>
+      <c r="D998" s="2"/>
+      <c r="E998" s="2"/>
+      <c r="F998" s="2"/>
+      <c r="G998" s="2"/>
+      <c r="H998" s="2"/>
+      <c r="I998" s="2"/>
+      <c r="J998" s="2"/>
+      <c r="K998" s="2"/>
+      <c r="L998" s="2"/>
+      <c r="M998" s="2"/>
+      <c r="N998" s="2"/>
+      <c r="O998" s="2"/>
+      <c r="P998" s="2"/>
+      <c r="Q998" s="2"/>
+      <c r="R998" s="2"/>
+      <c r="S998" s="2"/>
+      <c r="T998" s="2"/>
+      <c r="U998" s="2"/>
+      <c r="V998" s="2"/>
+      <c r="W998" s="2"/>
+      <c r="X998" s="2"/>
+    </row>
+    <row r="999" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A999" s="2"/>
+      <c r="B999" s="2"/>
+      <c r="C999" s="2"/>
+      <c r="D999" s="2"/>
+      <c r="E999" s="2"/>
+      <c r="F999" s="2"/>
+      <c r="G999" s="2"/>
+      <c r="H999" s="2"/>
+      <c r="I999" s="2"/>
+      <c r="J999" s="2"/>
+      <c r="K999" s="2"/>
+      <c r="L999" s="2"/>
+      <c r="M999" s="2"/>
+      <c r="N999" s="2"/>
+      <c r="O999" s="2"/>
+      <c r="P999" s="2"/>
+      <c r="Q999" s="2"/>
+      <c r="R999" s="2"/>
+      <c r="S999" s="2"/>
+      <c r="T999" s="2"/>
+      <c r="U999" s="2"/>
+      <c r="V999" s="2"/>
+      <c r="W999" s="2"/>
+      <c r="X999" s="2"/>
+    </row>
+    <row r="1000" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1000" s="2"/>
+      <c r="B1000" s="2"/>
+      <c r="C1000" s="2"/>
+      <c r="D1000" s="2"/>
+      <c r="E1000" s="2"/>
+      <c r="F1000" s="2"/>
+      <c r="G1000" s="2"/>
+      <c r="H1000" s="2"/>
+      <c r="I1000" s="2"/>
+      <c r="J1000" s="2"/>
+      <c r="K1000" s="2"/>
+      <c r="L1000" s="2"/>
+      <c r="M1000" s="2"/>
+      <c r="N1000" s="2"/>
+      <c r="O1000" s="2"/>
+      <c r="P1000" s="2"/>
+      <c r="Q1000" s="2"/>
+      <c r="R1000" s="2"/>
+      <c r="S1000" s="2"/>
+      <c r="T1000" s="2"/>
+      <c r="U1000" s="2"/>
+      <c r="V1000" s="2"/>
+      <c r="W1000" s="2"/>
+      <c r="X1000" s="2"/>
+    </row>
+    <row r="1001" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+    </row>
+    <row r="1002" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+    </row>
+    <row r="1003" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+    </row>
+    <row r="1004" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+    </row>
+    <row r="1005" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+    </row>
+    <row r="1006" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+    </row>
+    <row r="1007" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1007" s="2"/>
+      <c r="B1007" s="2"/>
+      <c r="C1007" s="2"/>
+      <c r="D1007" s="2"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="2"/>
+      <c r="G1007" s="2"/>
+      <c r="H1007" s="2"/>
+      <c r="I1007" s="2"/>
+      <c r="J1007" s="2"/>
+      <c r="K1007" s="2"/>
+      <c r="L1007" s="2"/>
+      <c r="M1007" s="2"/>
+      <c r="N1007" s="2"/>
+      <c r="O1007" s="2"/>
+      <c r="P1007" s="2"/>
+      <c r="Q1007" s="2"/>
+      <c r="R1007" s="2"/>
+      <c r="S1007" s="2"/>
+      <c r="T1007" s="2"/>
+      <c r="U1007" s="2"/>
+      <c r="V1007" s="2"/>
+      <c r="W1007" s="2"/>
+      <c r="X1007" s="2"/>
+    </row>
+    <row r="1008" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1008" s="2"/>
+      <c r="B1008" s="2"/>
+      <c r="C1008" s="2"/>
+      <c r="D1008" s="2"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="2"/>
+      <c r="G1008" s="2"/>
+      <c r="H1008" s="2"/>
+      <c r="I1008" s="2"/>
+      <c r="J1008" s="2"/>
+      <c r="K1008" s="2"/>
+      <c r="L1008" s="2"/>
+      <c r="M1008" s="2"/>
+      <c r="N1008" s="2"/>
+      <c r="O1008" s="2"/>
+      <c r="P1008" s="2"/>
+      <c r="Q1008" s="2"/>
+      <c r="R1008" s="2"/>
+      <c r="S1008" s="2"/>
+      <c r="T1008" s="2"/>
+      <c r="U1008" s="2"/>
+      <c r="V1008" s="2"/>
+      <c r="W1008" s="2"/>
+      <c r="X1008" s="2"/>
+    </row>
+    <row r="1009" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1009" s="2"/>
+      <c r="B1009" s="2"/>
+      <c r="C1009" s="2"/>
+      <c r="D1009" s="2"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="2"/>
+      <c r="G1009" s="2"/>
+      <c r="H1009" s="2"/>
+      <c r="I1009" s="2"/>
+      <c r="J1009" s="2"/>
+      <c r="K1009" s="2"/>
+      <c r="L1009" s="2"/>
+      <c r="M1009" s="2"/>
+      <c r="N1009" s="2"/>
+      <c r="O1009" s="2"/>
+      <c r="P1009" s="2"/>
+      <c r="Q1009" s="2"/>
+      <c r="R1009" s="2"/>
+      <c r="S1009" s="2"/>
+      <c r="T1009" s="2"/>
+      <c r="U1009" s="2"/>
+      <c r="V1009" s="2"/>
+      <c r="W1009" s="2"/>
+      <c r="X1009" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/data/Bolometer_readings_PulseForge.xlsx
+++ b/data/Bolometer_readings_PulseForge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valenetjong/Bayesian-Optimization-Ferroelectrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9C3FAC-396C-634A-8A22-0D05467717A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF50D04-00EF-BD40-843F-7A66D4762768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="28260" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51720" yWindow="1020" windowWidth="28260" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -26320,8 +26320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/Bolometer_readings_PulseForge.xlsx
+++ b/data/Bolometer_readings_PulseForge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valenetjong/Bayesian-Optimization-Ferroelectrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF50D04-00EF-BD40-843F-7A66D4762768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6F22FD-8434-924D-9D7B-506FB141BED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51720" yWindow="1020" windowWidth="28260" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26321,7 +26321,7 @@
   <dimension ref="A1:X1009"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/Bolometer_readings_PulseForge.xlsx
+++ b/data/Bolometer_readings_PulseForge.xlsx
@@ -8,16 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valenetjong/Bayesian-Optimization-Ferroelectrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6F22FD-8434-924D-9D7B-506FB141BED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BA55E6-922A-264E-B1DB-C2DC0531B0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51720" yWindow="1020" windowWidth="28260" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Combined" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjTmtwuSxCe9OsNljgvcWvB+Ir1xQ=="/>
     </ext>
@@ -26,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
   <si>
     <t>Sample ID</t>
   </si>
@@ -55,9 +66,6 @@
     <t>2 Qsw/(U+|D|) 1e6cycles</t>
   </si>
   <si>
-    <t>KHM009_3</t>
-  </si>
-  <si>
     <t>O_1D</t>
   </si>
   <si>
@@ -65,21 +73,6 @@
   </si>
   <si>
     <t>O_3R</t>
-  </si>
-  <si>
-    <t>KHM009_4</t>
-  </si>
-  <si>
-    <t>KHM009_5</t>
-  </si>
-  <si>
-    <t>KHM009_6</t>
-  </si>
-  <si>
-    <t>KHM009_7</t>
-  </si>
-  <si>
-    <t>KHM009_8</t>
   </si>
   <si>
     <t>KHM009_14</t>
@@ -98,21 +91,6 @@
   </si>
   <si>
     <t>KHM009_20</t>
-  </si>
-  <si>
-    <t>KHM009_22</t>
-  </si>
-  <si>
-    <t>KHM009_23</t>
-  </si>
-  <si>
-    <t>KHM009_24</t>
-  </si>
-  <si>
-    <t>KHM009_25</t>
-  </si>
-  <si>
-    <t>KHM009_26</t>
   </si>
   <si>
     <t>KHM010_1</t>
@@ -184,27 +162,6 @@
     <t>KHM010_17</t>
   </si>
   <si>
-    <t>KHM010_18</t>
-  </si>
-  <si>
-    <t>KHM010_19</t>
-  </si>
-  <si>
-    <t>KHM010_20</t>
-  </si>
-  <si>
-    <t>KHM010_21</t>
-  </si>
-  <si>
-    <t>KHM010_22</t>
-  </si>
-  <si>
-    <t>KHM010_23</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Time (ms)</t>
   </si>
   <si>
@@ -265,15 +222,6 @@
     <t>KHM006_6</t>
   </si>
   <si>
-    <t>KHM005_1</t>
-  </si>
-  <si>
-    <t>KHM005_2</t>
-  </si>
-  <si>
-    <t>KHM005_3</t>
-  </si>
-  <si>
     <t>KHM005_4</t>
   </si>
   <si>
@@ -292,7 +240,49 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>No N2 atmosphere</t>
+    <t>30um_O_1D</t>
+  </si>
+  <si>
+    <t>30um_O_2D</t>
+  </si>
+  <si>
+    <t>20um_O_1D</t>
+  </si>
+  <si>
+    <t>20um_O_2D</t>
+  </si>
+  <si>
+    <t>30um_O_-1D</t>
+  </si>
+  <si>
+    <t>20um_O_3D</t>
+  </si>
+  <si>
+    <t>30um_O_3D</t>
+  </si>
+  <si>
+    <t>30um_O_3R</t>
+  </si>
+  <si>
+    <t>30um_O_-4D</t>
+  </si>
+  <si>
+    <t>30um_O_2R</t>
+  </si>
+  <si>
+    <t>30um_O_2D3R</t>
+  </si>
+  <si>
+    <t>30um_O_2D2R</t>
+  </si>
+  <si>
+    <t>100um_O_NA2</t>
+  </si>
+  <si>
+    <t>20um_O_5R</t>
+  </si>
+  <si>
+    <t>100um_O_1D</t>
   </si>
 </sst>
 </file>
@@ -362,24 +352,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -400,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -411,23 +389,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -439,7 +405,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -660,7 +635,7 @@
   <dimension ref="A1:X982"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H7" sqref="H7:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -685,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -720,10 +695,10 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3">
         <v>799</v>
@@ -743,7 +718,7 @@
       <c r="H2" s="3">
         <v>0.58299000000000001</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="8">
         <v>1.2013560000000001</v>
       </c>
       <c r="J2" s="2"/>
@@ -764,10 +739,10 @@
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>738</v>
@@ -806,10 +781,10 @@
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
         <v>716</v>
@@ -850,10 +825,10 @@
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>716</v>
@@ -892,10 +867,10 @@
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>700</v>
@@ -909,7 +884,7 @@
       <c r="F6" s="3">
         <v>100</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="8">
         <v>10.130000000000001</v>
       </c>
       <c r="H6" s="3">
@@ -918,28 +893,28 @@
       <c r="I6" s="3">
         <v>3.4708700000000001</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>750</v>
@@ -950,7 +925,7 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="7">
         <v>100</v>
       </c>
       <c r="G7" s="3">
@@ -959,7 +934,7 @@
       <c r="H7" s="3">
         <v>0.13125000000000001</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="8">
         <v>0.26329999999999998</v>
       </c>
       <c r="J7" s="2"/>
@@ -980,10 +955,10 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
         <v>799</v>
@@ -994,7 +969,7 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="7">
         <v>100</v>
       </c>
       <c r="G8" s="3">
@@ -1003,7 +978,7 @@
       <c r="H8" s="3">
         <v>0.89149</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="8">
         <v>2.7753399999999999</v>
       </c>
       <c r="J8" s="2"/>
@@ -1024,10 +999,10 @@
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
         <v>720</v>
@@ -1038,7 +1013,7 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="7">
         <v>100</v>
       </c>
       <c r="G9" s="3">
@@ -1047,7 +1022,7 @@
       <c r="H9" s="3">
         <v>1.6650000000000002E-2</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1066,10 +1041,10 @@
     </row>
     <row r="10" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
         <v>770</v>
@@ -1080,7 +1055,7 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="7">
         <v>100</v>
       </c>
       <c r="G10" s="3">
@@ -1089,7 +1064,7 @@
       <c r="H10" s="3">
         <v>0.89090999999999998</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="8">
         <v>2.59131</v>
       </c>
       <c r="J10" s="2"/>
@@ -1110,10 +1085,10 @@
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3">
         <v>700</v>
@@ -1124,7 +1099,7 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="7">
         <v>100</v>
       </c>
       <c r="G11" s="3">
@@ -1133,7 +1108,7 @@
       <c r="H11" s="3">
         <v>1.04965</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="8">
         <v>2.5799799999999999</v>
       </c>
       <c r="J11" s="2"/>
@@ -1154,10 +1129,10 @@
     </row>
     <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
         <v>738</v>
@@ -1168,7 +1143,7 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="7">
         <v>100</v>
       </c>
       <c r="G12" s="3">
@@ -1177,7 +1152,7 @@
       <c r="H12" s="3">
         <v>1.0869599999999999</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="8">
         <v>3.1738200000000001</v>
       </c>
       <c r="J12" s="2"/>
@@ -1198,10 +1173,10 @@
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3">
         <v>670</v>
@@ -1212,7 +1187,7 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="7">
         <v>100</v>
       </c>
       <c r="G13" s="3">
@@ -1221,7 +1196,7 @@
       <c r="H13" s="3">
         <v>2.8660000000000001E-2</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1240,10 +1215,10 @@
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
         <v>650</v>
@@ -1254,7 +1229,7 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="7">
         <v>100</v>
       </c>
       <c r="G14" s="3">
@@ -1263,7 +1238,7 @@
       <c r="H14" s="3">
         <v>3.8940000000000002E-2</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="8">
         <v>0.13150000000000001</v>
       </c>
       <c r="J14" s="2"/>
@@ -1284,10 +1259,10 @@
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3">
         <v>670</v>
@@ -1298,7 +1273,7 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="7">
         <v>100</v>
       </c>
       <c r="G15" s="3">
@@ -1307,7 +1282,7 @@
       <c r="H15" s="3">
         <v>0.23335</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="8">
         <v>0.45116000000000001</v>
       </c>
       <c r="J15" s="2"/>
@@ -1328,10 +1303,10 @@
     </row>
     <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3">
         <v>700</v>
@@ -1342,7 +1317,7 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="7">
         <v>100</v>
       </c>
       <c r="G16" s="3">
@@ -1351,7 +1326,7 @@
       <c r="H16" s="3">
         <v>1.1618599999999999</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="8">
         <v>2.1266400000000001</v>
       </c>
       <c r="J16" s="2"/>
@@ -1372,10 +1347,10 @@
     </row>
     <row r="17" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C17" s="3">
         <v>716</v>
@@ -1386,7 +1361,7 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="7">
         <v>100</v>
       </c>
       <c r="G17" s="3">
@@ -1395,7 +1370,7 @@
       <c r="H17" s="3">
         <v>1.38449</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="8">
         <v>3.46821</v>
       </c>
       <c r="J17" s="2"/>
@@ -1416,10 +1391,10 @@
     </row>
     <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3">
         <v>700</v>
@@ -1430,7 +1405,7 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="7">
         <v>100</v>
       </c>
       <c r="G18" s="3">
@@ -1439,7 +1414,7 @@
       <c r="H18" s="3">
         <v>1.5509200000000001</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="8">
         <v>3.6858499999999998</v>
       </c>
       <c r="J18" s="2"/>
@@ -1460,10 +1435,10 @@
     </row>
     <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C19" s="3">
         <v>716</v>
@@ -1474,7 +1449,7 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="7">
         <v>100</v>
       </c>
       <c r="G19" s="3">
@@ -1483,7 +1458,7 @@
       <c r="H19" s="3">
         <v>1.33918</v>
       </c>
-      <c r="I19" s="12">
+      <c r="I19" s="8">
         <v>3.4456600000000002</v>
       </c>
       <c r="J19" s="2"/>
@@ -1504,10 +1479,10 @@
     </row>
     <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3">
         <v>670</v>
@@ -1518,7 +1493,7 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="7">
         <v>100</v>
       </c>
       <c r="G20" s="3">
@@ -1527,7 +1502,7 @@
       <c r="H20" s="3">
         <v>1.4474</v>
       </c>
-      <c r="I20" s="12">
+      <c r="I20" s="8">
         <v>2.6515499999999999</v>
       </c>
       <c r="J20" s="2"/>
@@ -1548,10 +1523,10 @@
     </row>
     <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3">
         <v>650</v>
@@ -1562,7 +1537,7 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="7">
         <v>100</v>
       </c>
       <c r="G21" s="3">
@@ -1590,10 +1565,10 @@
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3">
         <v>620</v>
@@ -1604,7 +1579,7 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="7">
         <v>100</v>
       </c>
       <c r="G22" s="3">
@@ -26318,10 +26293,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X1009"/>
+  <dimension ref="A1:X978"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26337,35 +26312,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>87</v>
+      <c r="J1" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -26383,30 +26358,28 @@
       <c r="X1" s="2"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2">
+      <c r="A2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="11">
         <v>2000</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="11">
         <v>2000</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="11">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="11">
         <v>100</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="11">
         <v>5.18</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -26423,28 +26396,28 @@
       <c r="X2" s="2"/>
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="11">
         <v>2000</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="11">
         <v>100</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="G3" s="11">
+        <v>9.18</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -26461,30 +26434,26 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2">
-        <v>2500</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="11">
         <v>2000</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="11">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="11">
         <v>100</v>
       </c>
-      <c r="G4" s="2">
-        <v>9.18</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -26501,28 +26470,28 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="A5" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11">
+        <v>2500</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="11">
         <v>100</v>
       </c>
-      <c r="G5" s="2">
-        <v>5.18</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
+      <c r="G5" s="11">
+        <v>5.38</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -26539,28 +26508,28 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2">
-        <v>2500</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="A6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="11">
         <v>100</v>
       </c>
-      <c r="G6" s="2">
-        <v>9.18</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="G6" s="11">
+        <v>10.27</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -26577,26 +26546,35 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="A7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2500</v>
+      </c>
+      <c r="D7" s="11">
+        <v>500</v>
+      </c>
+      <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="11">
         <v>100</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="G7" s="11">
+        <v>2.73</v>
+      </c>
+      <c r="H7" s="11">
+        <f>TRUNC(0.267200993585407,5)</f>
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.87302572996540206</v>
+      </c>
+      <c r="J7" s="10"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -26613,28 +26591,35 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2">
-        <v>2500</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="A8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2700</v>
+      </c>
+      <c r="D8" s="11">
+        <v>500</v>
+      </c>
+      <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="11">
         <v>100</v>
       </c>
-      <c r="G8" s="2">
-        <v>5.38</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="G8" s="11">
+        <v>3.4</v>
+      </c>
+      <c r="H8" s="11">
+        <f>TRUNC(0.84387099208633,5)</f>
+        <v>0.84387000000000001</v>
+      </c>
+      <c r="I8" s="11">
+        <v>2.6001323817483191</v>
+      </c>
+      <c r="J8" s="10"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -26651,28 +26636,31 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2">
+      <c r="A9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="11">
         <v>3000</v>
       </c>
-      <c r="D9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9" s="11">
+        <v>500</v>
+      </c>
+      <c r="E9" s="11">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="11">
         <v>100</v>
       </c>
-      <c r="G9" s="2">
-        <v>10.27</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11">
+        <f>TRUNC(1.08099093768822,5)</f>
+        <v>1.0809899999999999</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -26689,28 +26677,35 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2">
-        <v>2500</v>
-      </c>
-      <c r="D10" s="2">
-        <v>500</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="A10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2200</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="11">
         <v>1</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="11">
         <v>100</v>
       </c>
-      <c r="G10" s="2">
-        <v>2.73</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="G10" s="11">
+        <v>3.79</v>
+      </c>
+      <c r="H10" s="11">
+        <f>TRUNC(0.58856787583946,5)</f>
+        <v>0.58855999999999997</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1.3404698130255503</v>
+      </c>
+      <c r="J10" s="10"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -26727,28 +26722,35 @@
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2">
+      <c r="A11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="11">
         <v>2700</v>
       </c>
-      <c r="D11" s="2">
-        <v>500</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D11" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="11">
         <v>100</v>
       </c>
-      <c r="G11" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="G11" s="11">
+        <v>6.44</v>
+      </c>
+      <c r="H11" s="11">
+        <f>TRUNC(1.65052360820368,5)</f>
+        <v>1.65052</v>
+      </c>
+      <c r="I11" s="11">
+        <v>3.8220865188186721</v>
+      </c>
+      <c r="J11" s="10"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -26765,26 +26767,35 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D12" s="2">
-        <v>500</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="A12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2200</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="11">
         <v>1</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="11">
         <v>100</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="G12" s="11">
+        <v>5.36</v>
+      </c>
+      <c r="H12" s="11">
+        <f>TRUNC(1.07446138162073,5)</f>
+        <v>1.07446</v>
+      </c>
+      <c r="I12" s="11">
+        <v>3.2202096407411043</v>
+      </c>
+      <c r="J12" s="10"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -26801,28 +26812,28 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2">
-        <v>2200</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="A13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11">
+        <v>2500</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1500</v>
+      </c>
+      <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="11">
         <v>100</v>
       </c>
-      <c r="G13" s="2">
-        <v>3.79</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="G13" s="11">
+        <v>7.48</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -26839,28 +26850,34 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2">
+      <c r="A14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="11">
         <v>2700</v>
       </c>
-      <c r="D14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14" s="11">
+        <v>1500</v>
+      </c>
+      <c r="E14" s="11">
         <v>1</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="11">
         <v>100</v>
       </c>
-      <c r="G14" s="2">
-        <v>6.44</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="G14" s="11">
+        <v>8.99</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2.4380445972106783</v>
+      </c>
+      <c r="I14" s="11">
+        <v>4.582419233725969</v>
+      </c>
+      <c r="J14" s="10"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -26877,28 +26894,30 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="2">
-        <v>2200</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="A15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D15" s="11">
         <v>1500</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="11">
         <v>1</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="11">
         <v>100</v>
       </c>
-      <c r="G15" s="2">
-        <v>5.36</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
+        <v>2.425604770757245</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -26915,28 +26934,32 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2">
-        <v>2500</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1500</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="A16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2200</v>
+      </c>
+      <c r="D16" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="11">
         <v>1</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="11">
         <v>100</v>
       </c>
-      <c r="G16" s="2">
-        <v>7.48</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="G16" s="11">
+        <v>6.65</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1.149744174070388</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -26953,28 +26976,28 @@
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2">
+      <c r="A17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11">
         <v>2700</v>
       </c>
-      <c r="D17" s="2">
-        <v>1500</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E17" s="11">
         <v>1</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="11">
         <v>100</v>
       </c>
-      <c r="G17" s="2">
-        <v>8.99</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="G17" s="11">
+        <v>11.01</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -26990,27 +27013,33 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1500</v>
-      </c>
-      <c r="E18" s="2">
+    <row r="18" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2000</v>
+      </c>
+      <c r="D18" s="11">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="11">
         <v>1</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="11">
         <v>100</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="G18" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.78012094963561462</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -27027,28 +27056,32 @@
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2">
+      <c r="A19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="11">
         <v>2200</v>
       </c>
-      <c r="D19" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19" s="11">
+        <v>5000</v>
+      </c>
+      <c r="E19" s="11">
         <v>1</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="11">
         <v>100</v>
       </c>
-      <c r="G19" s="2">
-        <v>6.65</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="G19" s="11">
+        <v>11.02</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1.211619529929796</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -27065,28 +27098,32 @@
       <c r="X19" s="2"/>
     </row>
     <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2">
-        <v>2700</v>
-      </c>
-      <c r="D20" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="A20" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2500</v>
+      </c>
+      <c r="D20" s="11">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="11">
         <v>1</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="11">
         <v>100</v>
       </c>
-      <c r="G20" s="2">
-        <v>11.01</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="G20" s="11">
+        <v>14.67</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1.2959347329511699</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -27102,29 +27139,33 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D21" s="2">
+    <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2700</v>
+      </c>
+      <c r="D21" s="11">
         <v>5000</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="11">
         <v>1</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="11">
         <v>100</v>
       </c>
-      <c r="G21" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="G21" s="11">
+        <v>17.38</v>
+      </c>
+      <c r="H21" s="11">
+        <v>3.183844439171668</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -27141,28 +27182,32 @@
       <c r="X21" s="2"/>
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2">
-        <v>2200</v>
-      </c>
-      <c r="D22" s="2">
+      <c r="A22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="11">
+        <v>3000</v>
+      </c>
+      <c r="D22" s="11">
         <v>5000</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="11">
         <v>1</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="11">
         <v>100</v>
       </c>
-      <c r="G22" s="2">
-        <v>11.02</v>
-      </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="G22" s="11">
+        <v>21.81</v>
+      </c>
+      <c r="H22" s="11">
+        <v>2.0296711191194352</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -27178,29 +27223,33 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2">
+      <c r="C23" s="11">
         <v>2500</v>
       </c>
-      <c r="D23" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23" s="11">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="11">
         <v>1</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="11">
         <v>100</v>
       </c>
-      <c r="G23" s="2">
-        <v>14.67</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="G23" s="11">
+        <v>7.48</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1.2169831079627338</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -27216,29 +27265,33 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2">
+    <row r="24" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="11">
         <v>2700</v>
       </c>
-      <c r="D24" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="11">
         <v>1</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="11">
         <v>100</v>
       </c>
-      <c r="G24" s="2">
-        <v>17.38</v>
-      </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="G24" s="11">
+        <v>11.01</v>
+      </c>
+      <c r="H24" s="11">
+        <v>2.7375854992408799</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -27255,28 +27308,32 @@
       <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2">
-        <v>3000</v>
-      </c>
-      <c r="D25" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="A25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2500</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E25" s="11">
         <v>1</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="11">
         <v>100</v>
       </c>
-      <c r="G25" s="2">
-        <v>21.81</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="G25" s="11">
+        <v>5.38</v>
+      </c>
+      <c r="H25" s="11">
+        <v>1.254034099860784</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -27292,34 +27349,22 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2">
-        <v>2500</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1500</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1</v>
-      </c>
-      <c r="F26" s="2">
-        <v>100</v>
-      </c>
-      <c r="G26" s="2">
-        <v>7.48</v>
-      </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+    <row r="26" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -27330,34 +27375,40 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2">
-        <v>2700</v>
-      </c>
-      <c r="D27" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E27" s="2">
+    <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="11">
+        <v>799</v>
+      </c>
+      <c r="D27" s="11">
+        <v>500</v>
+      </c>
+      <c r="E27" s="11">
         <v>1</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="11">
         <v>100</v>
       </c>
-      <c r="G27" s="2">
-        <v>11.01</v>
-      </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="G27" s="11">
+        <v>5.24</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0.58298888108743629</v>
+      </c>
+      <c r="I27" s="13">
+        <v>1.2013569985324948</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -27369,33 +27420,37 @@
       <c r="X27" s="2"/>
     </row>
     <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2">
-        <v>2500</v>
-      </c>
-      <c r="D28" s="2">
+      <c r="A28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="11">
+        <v>738</v>
+      </c>
+      <c r="D28" s="11">
         <v>1000</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="11">
         <v>1</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="11">
         <v>100</v>
       </c>
-      <c r="G28" s="2">
-        <v>5.38</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="G28" s="11">
+        <v>7.52</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.5217383002119359</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -27407,32 +27462,32 @@
       <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="2">
-        <v>850</v>
-      </c>
-      <c r="D29" s="2">
-        <v>500</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2">
-        <v>85</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="4">
-        <v>0.81927000000000005</v>
-      </c>
-      <c r="I29" s="2">
-        <v>2.67374</v>
-      </c>
-      <c r="J29" s="2"/>
+      <c r="A29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="11">
+        <v>716</v>
+      </c>
+      <c r="D29" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1</v>
+      </c>
+      <c r="F29" s="11">
+        <v>100</v>
+      </c>
+      <c r="G29" s="11">
+        <v>10.71</v>
+      </c>
+      <c r="H29" s="11">
+        <v>3.56655476630042</v>
+      </c>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -27449,30 +27504,34 @@
       <c r="X29" s="2"/>
     </row>
     <row r="30" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="2">
-        <v>850</v>
-      </c>
-      <c r="D30" s="2">
-        <v>500</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>85</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="4">
-        <v>0.82974000000000003</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="A30" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="11">
+        <v>716</v>
+      </c>
+      <c r="D30" s="11">
+        <v>5000</v>
+      </c>
+      <c r="E30" s="11">
+        <v>1</v>
+      </c>
+      <c r="F30" s="11">
+        <v>100</v>
+      </c>
+      <c r="G30" s="11">
+        <v>14.89</v>
+      </c>
+      <c r="H30" s="12">
+        <v>1.6610901372394564</v>
+      </c>
+      <c r="I30" s="11">
+        <v>3.5136521918176413</v>
+      </c>
+      <c r="J30" s="11"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -27488,71 +27547,77 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="2">
-        <v>850</v>
-      </c>
-      <c r="D31" s="2">
-        <v>500</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2</v>
-      </c>
-      <c r="F31" s="2">
-        <v>85</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="4">
-        <v>0.82974000000000003</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+    <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="11">
+        <v>700</v>
+      </c>
+      <c r="D31" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="11">
+        <v>1</v>
+      </c>
+      <c r="F31" s="11">
+        <v>100</v>
+      </c>
+      <c r="G31" s="13">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H31" s="11">
+        <v>1.4239806239874728</v>
+      </c>
+      <c r="I31" s="11">
+        <v>3.4708714822041062</v>
+      </c>
+      <c r="J31" s="11"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-    </row>
-    <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+    </row>
+    <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="2">
-        <v>850</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E32" s="2">
-        <v>5</v>
-      </c>
-      <c r="F32" s="2">
-        <v>75</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2">
-        <v>1.08646</v>
-      </c>
-      <c r="I32" s="4">
-        <v>3.04874</v>
+        <v>18</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="3">
+        <v>750</v>
+      </c>
+      <c r="D32" s="3">
+        <v>500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4.51</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.13124992209062411</v>
+      </c>
+      <c r="I32" s="8">
+        <v>0.26329823795538759</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -27570,68 +27635,76 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="2">
-        <v>850</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E33" s="2">
-        <v>5</v>
-      </c>
-      <c r="F33" s="2">
-        <v>75</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2">
-        <v>1.0319199999999999</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="C33" s="3">
+        <v>799</v>
+      </c>
+      <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="7">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>5.37</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.89149093430637516</v>
+      </c>
+      <c r="I33" s="8">
+        <v>2.7753404356378253</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
     </row>
     <row r="34" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2">
-        <v>850</v>
-      </c>
-      <c r="D34" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E34" s="2">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2">
-        <v>65</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2">
-        <v>1.15469</v>
-      </c>
-      <c r="I34" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3">
+        <v>720</v>
+      </c>
+      <c r="D34" s="3">
+        <v>500</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
+        <v>100</v>
+      </c>
+      <c r="G34" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1.6645384750571E-2</v>
+      </c>
+      <c r="I34" s="6"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -27650,24 +27723,32 @@
     </row>
     <row r="35" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2">
-        <v>900</v>
-      </c>
-      <c r="D35" s="2">
+        <v>22</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="3">
+        <v>770</v>
+      </c>
+      <c r="D35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="2">
-        <v>3</v>
-      </c>
-      <c r="F35" s="2">
-        <v>85</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4.88</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.89091034518113621</v>
+      </c>
+      <c r="I35" s="8">
+        <v>2.5913062464887977</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -27686,24 +27767,32 @@
     </row>
     <row r="36" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2">
-        <v>900</v>
-      </c>
-      <c r="D36" s="2">
+        <v>23</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="3">
+        <v>700</v>
+      </c>
+      <c r="D36" s="3">
         <v>1000</v>
       </c>
-      <c r="E36" s="2">
-        <v>5</v>
-      </c>
-      <c r="F36" s="2">
-        <v>65</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7">
+        <v>100</v>
+      </c>
+      <c r="G36" s="3">
+        <v>6.76</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1.0496539055848051</v>
+      </c>
+      <c r="I36" s="8">
+        <v>2.5799843592590488</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -27720,26 +27809,34 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2">
-        <v>900</v>
-      </c>
-      <c r="D37" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E37" s="2">
-        <v>9</v>
-      </c>
-      <c r="F37" s="2">
-        <v>55</v>
-      </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="3">
+        <v>738</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="7">
+        <v>100</v>
+      </c>
+      <c r="G37" s="3">
+        <v>7.77</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1.0869649138691204</v>
+      </c>
+      <c r="I37" s="8">
+        <v>3.1738185691110727</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -27757,33 +27854,31 @@
       <c r="X37" s="2"/>
     </row>
     <row r="38" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="8">
-        <v>799</v>
-      </c>
-      <c r="D38" s="8">
-        <v>500</v>
-      </c>
-      <c r="E38" s="8">
+      <c r="A38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="3">
+        <v>670</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E38" s="3">
         <v>1</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <v>100</v>
       </c>
-      <c r="G38" s="8">
-        <v>5.24</v>
-      </c>
-      <c r="H38" s="8">
-        <v>0.58299000000000001</v>
-      </c>
-      <c r="I38" s="6">
-        <v>1.2013560000000001</v>
-      </c>
+      <c r="G38" s="3">
+        <v>6.02</v>
+      </c>
+      <c r="H38" s="3">
+        <v>2.8656104333789099E-2</v>
+      </c>
+      <c r="I38" s="6"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -27802,30 +27897,32 @@
     </row>
     <row r="39" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="2">
-        <v>799</v>
-      </c>
-      <c r="D39" s="2">
-        <v>500</v>
-      </c>
-      <c r="E39" s="2">
+        <v>27</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="3">
+        <v>650</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E39" s="3">
         <v>1</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="7">
         <v>100</v>
       </c>
-      <c r="G39" s="2">
-        <v>5.24</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0.66993999999999998</v>
-      </c>
-      <c r="I39" s="2"/>
+      <c r="G39" s="3">
+        <v>8.73</v>
+      </c>
+      <c r="H39" s="3">
+        <v>3.8935849061613799E-2</v>
+      </c>
+      <c r="I39" s="8">
+        <v>0.1315049942519029</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -27843,31 +27940,33 @@
       <c r="X39" s="2"/>
     </row>
     <row r="40" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="14">
-        <v>738</v>
-      </c>
-      <c r="D40" s="14">
-        <v>1000</v>
-      </c>
-      <c r="E40" s="14">
+      <c r="A40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="3">
+        <v>670</v>
+      </c>
+      <c r="D40" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="7">
         <v>100</v>
       </c>
-      <c r="G40" s="14">
-        <v>7.52</v>
-      </c>
-      <c r="H40" s="14">
-        <v>0.52173999999999998</v>
-      </c>
-      <c r="I40" s="14"/>
+      <c r="G40" s="3">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.2333478836456564</v>
+      </c>
+      <c r="I40" s="8">
+        <v>0.4511637114621348</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -27885,31 +27984,33 @@
       <c r="X40" s="2"/>
     </row>
     <row r="41" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="14">
-        <v>738</v>
-      </c>
-      <c r="D41" s="14">
-        <v>1000</v>
-      </c>
-      <c r="E41" s="14">
+      <c r="A41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="3">
+        <v>700</v>
+      </c>
+      <c r="D41" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="7">
         <v>100</v>
       </c>
-      <c r="G41" s="14">
-        <v>7.52</v>
-      </c>
-      <c r="H41" s="14">
-        <v>0.39785999999999999</v>
-      </c>
-      <c r="I41" s="14"/>
+      <c r="G41" s="3">
+        <v>10.48</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1.1618574566411657</v>
+      </c>
+      <c r="I41" s="8">
+        <v>2.1266397485053652</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -27927,25 +28028,33 @@
       <c r="X41" s="2"/>
     </row>
     <row r="42" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="14"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14">
-        <v>720</v>
-      </c>
-      <c r="D42" s="14">
-        <v>1500</v>
-      </c>
-      <c r="E42" s="14">
+      <c r="A42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="3">
+        <v>716</v>
+      </c>
+      <c r="D42" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="7">
         <v>100</v>
       </c>
-      <c r="G42" s="14">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
+      <c r="G42" s="3">
+        <v>11.01</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1.3844885171967043</v>
+      </c>
+      <c r="I42" s="8">
+        <v>3.4682128406428419</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -27963,33 +28072,29 @@
       <c r="X42" s="2"/>
     </row>
     <row r="43" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="8">
-        <v>716</v>
-      </c>
-      <c r="D43" s="8">
+      <c r="A43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="3">
+        <v>620</v>
+      </c>
+      <c r="D43" s="3">
         <v>2000</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="3">
         <v>1</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="7">
         <v>100</v>
       </c>
-      <c r="G43" s="8">
-        <v>10.71</v>
-      </c>
-      <c r="H43" s="8">
-        <v>1.45566</v>
-      </c>
-      <c r="I43" s="8">
-        <v>3.5665499999999999</v>
-      </c>
+      <c r="G43" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -28007,31 +28112,33 @@
       <c r="X43" s="2"/>
     </row>
     <row r="44" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="14">
-        <v>716</v>
-      </c>
-      <c r="D44" s="14">
+      <c r="A44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="3">
+        <v>700</v>
+      </c>
+      <c r="D44" s="3">
         <v>5000</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="3">
         <v>1</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="7">
         <v>100</v>
       </c>
-      <c r="G44" s="14">
-        <v>14.89</v>
-      </c>
-      <c r="H44" s="14">
-        <v>1.66109</v>
-      </c>
-      <c r="I44" s="14"/>
+      <c r="G44" s="3">
+        <v>14.71</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1.5509228505664854</v>
+      </c>
+      <c r="I44" s="8">
+        <v>3.685852431471957</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -28049,31 +28156,33 @@
       <c r="X44" s="2"/>
     </row>
     <row r="45" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="14">
+      <c r="A45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" s="3">
         <v>716</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="3">
         <v>1</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="7">
         <v>100</v>
       </c>
-      <c r="G45" s="14">
-        <v>14.89</v>
-      </c>
-      <c r="H45" s="9">
-        <v>1.4100299999999999</v>
-      </c>
-      <c r="I45" s="14"/>
+      <c r="G45" s="3">
+        <v>15.44</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1.3391797171675444</v>
+      </c>
+      <c r="I45" s="8">
+        <v>3.4456555826383841</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -28090,33 +28199,33 @@
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="8">
-        <v>700</v>
-      </c>
-      <c r="D46" s="8">
-        <v>2000</v>
-      </c>
-      <c r="E46" s="8">
+    <row r="46" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="3">
+        <v>670</v>
+      </c>
+      <c r="D46" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="7">
         <v>100</v>
       </c>
-      <c r="G46" s="6">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="H46" s="8">
-        <v>1.42398</v>
+      <c r="G46" s="3">
+        <v>13.37</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1.4474043604684743</v>
       </c>
       <c r="I46" s="8">
-        <v>3.4708700000000001</v>
+        <v>2.6515468360223791</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
@@ -28124,111 +28233,107 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-    </row>
-    <row r="47" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C47" s="14">
-        <v>700</v>
-      </c>
-      <c r="D47" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E47" s="14">
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+    </row>
+    <row r="47" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="3">
+        <v>650</v>
+      </c>
+      <c r="D47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E47" s="3">
         <v>1</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="7">
         <v>100</v>
       </c>
-      <c r="G47" s="10">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="H47" s="14">
-        <v>1.48597</v>
-      </c>
-      <c r="I47" s="14"/>
+      <c r="G47" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="H47" s="3">
+        <v>4.3957721493509301E-2</v>
+      </c>
+      <c r="I47" s="5"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
     </row>
     <row r="48" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2">
-        <v>850</v>
-      </c>
-      <c r="D48" s="2">
+        <v>40</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="3">
+        <v>620</v>
+      </c>
+      <c r="D48" s="3">
         <v>5000</v>
       </c>
-      <c r="E48" s="2">
-        <v>15</v>
-      </c>
-      <c r="F48" s="2">
-        <v>55</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>11.29</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3.03715475384807E-2</v>
+      </c>
+      <c r="I48" s="5"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
     </row>
     <row r="49" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2">
-        <v>850</v>
-      </c>
-      <c r="D49" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E49" s="2">
-        <v>15</v>
-      </c>
-      <c r="F49" s="2">
-        <v>45</v>
-      </c>
+      <c r="A49" s="2"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
@@ -28249,18 +28354,12 @@
       <c r="X49" s="2"/>
     </row>
     <row r="50" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2">
-        <v>25</v>
-      </c>
-      <c r="F50" s="2">
-        <v>65</v>
-      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
@@ -28281,18 +28380,12 @@
       <c r="X50" s="2"/>
     </row>
     <row r="51" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2">
-        <v>25</v>
-      </c>
-      <c r="F51" s="2">
-        <v>55</v>
-      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
@@ -28313,18 +28406,12 @@
       <c r="X51" s="2"/>
     </row>
     <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2">
-        <v>15</v>
-      </c>
-      <c r="F52" s="2">
-        <v>45</v>
-      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
@@ -28397,33 +28484,15 @@
       <c r="X54" s="2"/>
     </row>
     <row r="55" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="3">
-        <v>750</v>
-      </c>
-      <c r="D55" s="3">
-        <v>500</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1</v>
-      </c>
-      <c r="F55" s="11">
-        <v>100</v>
-      </c>
-      <c r="G55" s="3">
-        <v>4.51</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0.13125000000000001</v>
-      </c>
-      <c r="I55" s="12">
-        <v>0.26329999999999998</v>
-      </c>
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -28441,33 +28510,15 @@
       <c r="X55" s="2"/>
     </row>
     <row r="56" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="3">
-        <v>799</v>
-      </c>
-      <c r="D56" s="3">
-        <v>500</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="11">
-        <v>100</v>
-      </c>
-      <c r="G56" s="3">
-        <v>5.37</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0.89149</v>
-      </c>
-      <c r="I56" s="12">
-        <v>2.7753399999999999</v>
-      </c>
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -28485,31 +28536,15 @@
       <c r="X56" s="2"/>
     </row>
     <row r="57" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="3">
-        <v>720</v>
-      </c>
-      <c r="D57" s="3">
-        <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="11">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>4.07</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1.6650000000000002E-2</v>
-      </c>
-      <c r="I57" s="10"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -28527,33 +28562,15 @@
       <c r="X57" s="2"/>
     </row>
     <row r="58" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="3">
-        <v>770</v>
-      </c>
-      <c r="D58" s="3">
-        <v>500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="11">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>4.88</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0.89090999999999998</v>
-      </c>
-      <c r="I58" s="12">
-        <v>2.59131</v>
-      </c>
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -28571,33 +28588,15 @@
       <c r="X58" s="2"/>
     </row>
     <row r="59" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="3">
-        <v>700</v>
-      </c>
-      <c r="D59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="11">
-        <v>100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>6.76</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1.04965</v>
-      </c>
-      <c r="I59" s="12">
-        <v>2.5799799999999999</v>
-      </c>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
@@ -28615,33 +28614,15 @@
       <c r="X59" s="2"/>
     </row>
     <row r="60" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="3">
-        <v>738</v>
-      </c>
-      <c r="D60" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="11">
-        <v>100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>7.77</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1.0869599999999999</v>
-      </c>
-      <c r="I60" s="12">
-        <v>3.1738200000000001</v>
-      </c>
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
@@ -28659,31 +28640,15 @@
       <c r="X60" s="2"/>
     </row>
     <row r="61" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="3">
-        <v>670</v>
-      </c>
-      <c r="D61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="11">
-        <v>100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>6.02</v>
-      </c>
-      <c r="H61" s="3">
-        <v>2.8660000000000001E-2</v>
-      </c>
-      <c r="I61" s="10"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
@@ -28701,33 +28666,15 @@
       <c r="X61" s="2"/>
     </row>
     <row r="62" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="3">
-        <v>650</v>
-      </c>
-      <c r="D62" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="11">
-        <v>100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>8.73</v>
-      </c>
-      <c r="H62" s="3">
-        <v>3.8940000000000002E-2</v>
-      </c>
-      <c r="I62" s="12">
-        <v>0.13150000000000001</v>
-      </c>
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
@@ -28745,33 +28692,15 @@
       <c r="X62" s="2"/>
     </row>
     <row r="63" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="3">
-        <v>670</v>
-      </c>
-      <c r="D63" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" s="11">
-        <v>100</v>
-      </c>
-      <c r="G63" s="3">
-        <v>9.3800000000000008</v>
-      </c>
-      <c r="H63" s="3">
-        <v>0.23335</v>
-      </c>
-      <c r="I63" s="12">
-        <v>0.45116000000000001</v>
-      </c>
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
@@ -28789,33 +28718,15 @@
       <c r="X63" s="2"/>
     </row>
     <row r="64" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="3">
-        <v>700</v>
-      </c>
-      <c r="D64" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="11">
-        <v>100</v>
-      </c>
-      <c r="G64" s="3">
-        <v>10.48</v>
-      </c>
-      <c r="H64" s="3">
-        <v>1.1618599999999999</v>
-      </c>
-      <c r="I64" s="12">
-        <v>2.1266400000000001</v>
-      </c>
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
@@ -28833,33 +28744,15 @@
       <c r="X64" s="2"/>
     </row>
     <row r="65" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" s="3">
-        <v>716</v>
-      </c>
-      <c r="D65" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="11">
-        <v>100</v>
-      </c>
-      <c r="G65" s="3">
-        <v>11.01</v>
-      </c>
-      <c r="H65" s="3">
-        <v>1.38449</v>
-      </c>
-      <c r="I65" s="12">
-        <v>3.46821</v>
-      </c>
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
@@ -28877,26 +28770,15 @@
       <c r="X65" s="2"/>
     </row>
     <row r="66" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="3">
-        <v>620</v>
-      </c>
-      <c r="D66" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="11">
-        <v>100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
@@ -28914,33 +28796,15 @@
       <c r="X66" s="2"/>
     </row>
     <row r="67" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="3">
-        <v>700</v>
-      </c>
-      <c r="D67" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="11">
-        <v>100</v>
-      </c>
-      <c r="G67" s="3">
-        <v>14.71</v>
-      </c>
-      <c r="H67" s="3">
-        <v>1.5509200000000001</v>
-      </c>
-      <c r="I67" s="12">
-        <v>3.6858499999999998</v>
-      </c>
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
@@ -28958,33 +28822,15 @@
       <c r="X67" s="2"/>
     </row>
     <row r="68" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" s="3">
-        <v>716</v>
-      </c>
-      <c r="D68" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="11">
-        <v>100</v>
-      </c>
-      <c r="G68" s="3">
-        <v>15.44</v>
-      </c>
-      <c r="H68" s="3">
-        <v>1.33918</v>
-      </c>
-      <c r="I68" s="12">
-        <v>3.4456600000000002</v>
-      </c>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
@@ -29002,33 +28848,15 @@
       <c r="X68" s="2"/>
     </row>
     <row r="69" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="3">
-        <v>670</v>
-      </c>
-      <c r="D69" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1</v>
-      </c>
-      <c r="F69" s="11">
-        <v>100</v>
-      </c>
-      <c r="G69" s="3">
-        <v>13.37</v>
-      </c>
-      <c r="H69" s="3">
-        <v>1.4474</v>
-      </c>
-      <c r="I69" s="12">
-        <v>2.6515499999999999</v>
-      </c>
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
@@ -29046,31 +28874,15 @@
       <c r="X69" s="2"/>
     </row>
     <row r="70" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C70" s="3">
-        <v>650</v>
-      </c>
-      <c r="D70" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1</v>
-      </c>
-      <c r="F70" s="11">
-        <v>100</v>
-      </c>
-      <c r="G70" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="H70" s="3">
-        <v>3.6549999999999999E-2</v>
-      </c>
-      <c r="I70" s="7"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
@@ -29088,31 +28900,15 @@
       <c r="X70" s="2"/>
     </row>
     <row r="71" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="3">
-        <v>620</v>
-      </c>
-      <c r="D71" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1</v>
-      </c>
-      <c r="F71" s="11">
-        <v>100</v>
-      </c>
-      <c r="G71" s="3">
-        <v>11.29</v>
-      </c>
-      <c r="H71" s="3">
-        <v>3.0370000000000001E-2</v>
-      </c>
-      <c r="I71" s="7"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
@@ -29130,27 +28926,15 @@
       <c r="X71" s="2"/>
     </row>
     <row r="72" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3">
-        <v>850</v>
-      </c>
-      <c r="D72" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>20</v>
-      </c>
-      <c r="F72" s="11">
-        <v>55</v>
-      </c>
-      <c r="G72" s="3">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
@@ -29168,27 +28952,15 @@
       <c r="X72" s="2"/>
     </row>
     <row r="73" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3">
-        <v>850</v>
-      </c>
-      <c r="D73" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E73" s="3">
-        <v>8</v>
-      </c>
-      <c r="F73" s="11">
-        <v>55</v>
-      </c>
-      <c r="G73" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
@@ -29206,27 +28978,15 @@
       <c r="X73" s="2"/>
     </row>
     <row r="74" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3">
-        <v>850</v>
-      </c>
-      <c r="D74" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E74" s="3">
-        <v>4</v>
-      </c>
-      <c r="F74" s="11">
-        <v>55</v>
-      </c>
-      <c r="G74" s="3">
-        <v>6.18</v>
-      </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
@@ -29244,27 +29004,15 @@
       <c r="X74" s="2"/>
     </row>
     <row r="75" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3">
-        <v>850</v>
-      </c>
-      <c r="D75" s="3">
-        <v>500</v>
-      </c>
-      <c r="E75" s="3">
-        <v>2</v>
-      </c>
-      <c r="F75" s="11">
-        <v>55</v>
-      </c>
-      <c r="G75" s="3">
-        <v>3.23</v>
-      </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
@@ -29282,27 +29030,15 @@
       <c r="X75" s="2"/>
     </row>
     <row r="76" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3">
-        <v>850</v>
-      </c>
-      <c r="D76" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>15</v>
-      </c>
-      <c r="F76" s="11">
-        <v>55</v>
-      </c>
-      <c r="G76" s="3">
-        <v>18</v>
-      </c>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
@@ -29320,27 +29056,15 @@
       <c r="X76" s="2"/>
     </row>
     <row r="77" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3">
-        <v>850</v>
-      </c>
-      <c r="D77" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E77" s="3">
-        <v>25</v>
-      </c>
-      <c r="F77" s="11">
-        <v>55</v>
-      </c>
-      <c r="G77" s="3">
-        <v>17.61</v>
-      </c>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
@@ -29358,27 +29082,15 @@
       <c r="X77" s="2"/>
     </row>
     <row r="78" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3">
-        <v>600</v>
-      </c>
-      <c r="D78" s="3">
-        <v>40000</v>
-      </c>
-      <c r="E78" s="11">
-        <v>40</v>
-      </c>
-      <c r="F78" s="11">
-        <v>10</v>
-      </c>
-      <c r="G78" s="3">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
@@ -29396,27 +29108,15 @@
       <c r="X78" s="2"/>
     </row>
     <row r="79" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3">
-        <v>600</v>
-      </c>
-      <c r="D79" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E79" s="11">
-        <v>1</v>
-      </c>
-      <c r="F79" s="11">
-        <v>1</v>
-      </c>
-      <c r="G79" s="3">
-        <v>7.28</v>
-      </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
@@ -29435,8 +29135,8 @@
     </row>
     <row r="80" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -52807,812 +52507,6 @@
       <c r="W978" s="2"/>
       <c r="X978" s="2"/>
     </row>
-    <row r="979" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A979" s="2"/>
-      <c r="B979" s="2"/>
-      <c r="C979" s="2"/>
-      <c r="D979" s="2"/>
-      <c r="E979" s="2"/>
-      <c r="F979" s="2"/>
-      <c r="G979" s="2"/>
-      <c r="H979" s="2"/>
-      <c r="I979" s="2"/>
-      <c r="J979" s="2"/>
-      <c r="K979" s="2"/>
-      <c r="L979" s="2"/>
-      <c r="M979" s="2"/>
-      <c r="N979" s="2"/>
-      <c r="O979" s="2"/>
-      <c r="P979" s="2"/>
-      <c r="Q979" s="2"/>
-      <c r="R979" s="2"/>
-      <c r="S979" s="2"/>
-      <c r="T979" s="2"/>
-      <c r="U979" s="2"/>
-      <c r="V979" s="2"/>
-      <c r="W979" s="2"/>
-      <c r="X979" s="2"/>
-    </row>
-    <row r="980" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A980" s="2"/>
-      <c r="B980" s="2"/>
-      <c r="C980" s="2"/>
-      <c r="D980" s="2"/>
-      <c r="E980" s="2"/>
-      <c r="F980" s="2"/>
-      <c r="G980" s="2"/>
-      <c r="H980" s="2"/>
-      <c r="I980" s="2"/>
-      <c r="J980" s="2"/>
-      <c r="K980" s="2"/>
-      <c r="L980" s="2"/>
-      <c r="M980" s="2"/>
-      <c r="N980" s="2"/>
-      <c r="O980" s="2"/>
-      <c r="P980" s="2"/>
-      <c r="Q980" s="2"/>
-      <c r="R980" s="2"/>
-      <c r="S980" s="2"/>
-      <c r="T980" s="2"/>
-      <c r="U980" s="2"/>
-      <c r="V980" s="2"/>
-      <c r="W980" s="2"/>
-      <c r="X980" s="2"/>
-    </row>
-    <row r="981" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A981" s="2"/>
-      <c r="B981" s="2"/>
-      <c r="C981" s="2"/>
-      <c r="D981" s="2"/>
-      <c r="E981" s="2"/>
-      <c r="F981" s="2"/>
-      <c r="G981" s="2"/>
-      <c r="H981" s="2"/>
-      <c r="I981" s="2"/>
-      <c r="J981" s="2"/>
-      <c r="K981" s="2"/>
-      <c r="L981" s="2"/>
-      <c r="M981" s="2"/>
-      <c r="N981" s="2"/>
-      <c r="O981" s="2"/>
-      <c r="P981" s="2"/>
-      <c r="Q981" s="2"/>
-      <c r="R981" s="2"/>
-      <c r="S981" s="2"/>
-      <c r="T981" s="2"/>
-      <c r="U981" s="2"/>
-      <c r="V981" s="2"/>
-      <c r="W981" s="2"/>
-      <c r="X981" s="2"/>
-    </row>
-    <row r="982" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A982" s="2"/>
-      <c r="B982" s="2"/>
-      <c r="C982" s="2"/>
-      <c r="D982" s="2"/>
-      <c r="E982" s="2"/>
-      <c r="F982" s="2"/>
-      <c r="G982" s="2"/>
-      <c r="H982" s="2"/>
-      <c r="I982" s="2"/>
-      <c r="J982" s="2"/>
-      <c r="K982" s="2"/>
-      <c r="L982" s="2"/>
-      <c r="M982" s="2"/>
-      <c r="N982" s="2"/>
-      <c r="O982" s="2"/>
-      <c r="P982" s="2"/>
-      <c r="Q982" s="2"/>
-      <c r="R982" s="2"/>
-      <c r="S982" s="2"/>
-      <c r="T982" s="2"/>
-      <c r="U982" s="2"/>
-      <c r="V982" s="2"/>
-      <c r="W982" s="2"/>
-      <c r="X982" s="2"/>
-    </row>
-    <row r="983" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A983" s="2"/>
-      <c r="B983" s="2"/>
-      <c r="C983" s="2"/>
-      <c r="D983" s="2"/>
-      <c r="E983" s="2"/>
-      <c r="F983" s="2"/>
-      <c r="G983" s="2"/>
-      <c r="H983" s="2"/>
-      <c r="I983" s="2"/>
-      <c r="J983" s="2"/>
-      <c r="K983" s="2"/>
-      <c r="L983" s="2"/>
-      <c r="M983" s="2"/>
-      <c r="N983" s="2"/>
-      <c r="O983" s="2"/>
-      <c r="P983" s="2"/>
-      <c r="Q983" s="2"/>
-      <c r="R983" s="2"/>
-      <c r="S983" s="2"/>
-      <c r="T983" s="2"/>
-      <c r="U983" s="2"/>
-      <c r="V983" s="2"/>
-      <c r="W983" s="2"/>
-      <c r="X983" s="2"/>
-    </row>
-    <row r="984" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A984" s="2"/>
-      <c r="B984" s="2"/>
-      <c r="C984" s="2"/>
-      <c r="D984" s="2"/>
-      <c r="E984" s="2"/>
-      <c r="F984" s="2"/>
-      <c r="G984" s="2"/>
-      <c r="H984" s="2"/>
-      <c r="I984" s="2"/>
-      <c r="J984" s="2"/>
-      <c r="K984" s="2"/>
-      <c r="L984" s="2"/>
-      <c r="M984" s="2"/>
-      <c r="N984" s="2"/>
-      <c r="O984" s="2"/>
-      <c r="P984" s="2"/>
-      <c r="Q984" s="2"/>
-      <c r="R984" s="2"/>
-      <c r="S984" s="2"/>
-      <c r="T984" s="2"/>
-      <c r="U984" s="2"/>
-      <c r="V984" s="2"/>
-      <c r="W984" s="2"/>
-      <c r="X984" s="2"/>
-    </row>
-    <row r="985" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A985" s="2"/>
-      <c r="B985" s="2"/>
-      <c r="C985" s="2"/>
-      <c r="D985" s="2"/>
-      <c r="E985" s="2"/>
-      <c r="F985" s="2"/>
-      <c r="G985" s="2"/>
-      <c r="H985" s="2"/>
-      <c r="I985" s="2"/>
-      <c r="J985" s="2"/>
-      <c r="K985" s="2"/>
-      <c r="L985" s="2"/>
-      <c r="M985" s="2"/>
-      <c r="N985" s="2"/>
-      <c r="O985" s="2"/>
-      <c r="P985" s="2"/>
-      <c r="Q985" s="2"/>
-      <c r="R985" s="2"/>
-      <c r="S985" s="2"/>
-      <c r="T985" s="2"/>
-      <c r="U985" s="2"/>
-      <c r="V985" s="2"/>
-      <c r="W985" s="2"/>
-      <c r="X985" s="2"/>
-    </row>
-    <row r="986" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A986" s="2"/>
-      <c r="B986" s="2"/>
-      <c r="C986" s="2"/>
-      <c r="D986" s="2"/>
-      <c r="E986" s="2"/>
-      <c r="F986" s="2"/>
-      <c r="G986" s="2"/>
-      <c r="H986" s="2"/>
-      <c r="I986" s="2"/>
-      <c r="J986" s="2"/>
-      <c r="K986" s="2"/>
-      <c r="L986" s="2"/>
-      <c r="M986" s="2"/>
-      <c r="N986" s="2"/>
-      <c r="O986" s="2"/>
-      <c r="P986" s="2"/>
-      <c r="Q986" s="2"/>
-      <c r="R986" s="2"/>
-      <c r="S986" s="2"/>
-      <c r="T986" s="2"/>
-      <c r="U986" s="2"/>
-      <c r="V986" s="2"/>
-      <c r="W986" s="2"/>
-      <c r="X986" s="2"/>
-    </row>
-    <row r="987" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A987" s="2"/>
-      <c r="B987" s="2"/>
-      <c r="C987" s="2"/>
-      <c r="D987" s="2"/>
-      <c r="E987" s="2"/>
-      <c r="F987" s="2"/>
-      <c r="G987" s="2"/>
-      <c r="H987" s="2"/>
-      <c r="I987" s="2"/>
-      <c r="J987" s="2"/>
-      <c r="K987" s="2"/>
-      <c r="L987" s="2"/>
-      <c r="M987" s="2"/>
-      <c r="N987" s="2"/>
-      <c r="O987" s="2"/>
-      <c r="P987" s="2"/>
-      <c r="Q987" s="2"/>
-      <c r="R987" s="2"/>
-      <c r="S987" s="2"/>
-      <c r="T987" s="2"/>
-      <c r="U987" s="2"/>
-      <c r="V987" s="2"/>
-      <c r="W987" s="2"/>
-      <c r="X987" s="2"/>
-    </row>
-    <row r="988" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A988" s="2"/>
-      <c r="B988" s="2"/>
-      <c r="C988" s="2"/>
-      <c r="D988" s="2"/>
-      <c r="E988" s="2"/>
-      <c r="F988" s="2"/>
-      <c r="G988" s="2"/>
-      <c r="H988" s="2"/>
-      <c r="I988" s="2"/>
-      <c r="J988" s="2"/>
-      <c r="K988" s="2"/>
-      <c r="L988" s="2"/>
-      <c r="M988" s="2"/>
-      <c r="N988" s="2"/>
-      <c r="O988" s="2"/>
-      <c r="P988" s="2"/>
-      <c r="Q988" s="2"/>
-      <c r="R988" s="2"/>
-      <c r="S988" s="2"/>
-      <c r="T988" s="2"/>
-      <c r="U988" s="2"/>
-      <c r="V988" s="2"/>
-      <c r="W988" s="2"/>
-      <c r="X988" s="2"/>
-    </row>
-    <row r="989" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A989" s="2"/>
-      <c r="B989" s="2"/>
-      <c r="C989" s="2"/>
-      <c r="D989" s="2"/>
-      <c r="E989" s="2"/>
-      <c r="F989" s="2"/>
-      <c r="G989" s="2"/>
-      <c r="H989" s="2"/>
-      <c r="I989" s="2"/>
-      <c r="J989" s="2"/>
-      <c r="K989" s="2"/>
-      <c r="L989" s="2"/>
-      <c r="M989" s="2"/>
-      <c r="N989" s="2"/>
-      <c r="O989" s="2"/>
-      <c r="P989" s="2"/>
-      <c r="Q989" s="2"/>
-      <c r="R989" s="2"/>
-      <c r="S989" s="2"/>
-      <c r="T989" s="2"/>
-      <c r="U989" s="2"/>
-      <c r="V989" s="2"/>
-      <c r="W989" s="2"/>
-      <c r="X989" s="2"/>
-    </row>
-    <row r="990" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A990" s="2"/>
-      <c r="B990" s="2"/>
-      <c r="C990" s="2"/>
-      <c r="D990" s="2"/>
-      <c r="E990" s="2"/>
-      <c r="F990" s="2"/>
-      <c r="G990" s="2"/>
-      <c r="H990" s="2"/>
-      <c r="I990" s="2"/>
-      <c r="J990" s="2"/>
-      <c r="K990" s="2"/>
-      <c r="L990" s="2"/>
-      <c r="M990" s="2"/>
-      <c r="N990" s="2"/>
-      <c r="O990" s="2"/>
-      <c r="P990" s="2"/>
-      <c r="Q990" s="2"/>
-      <c r="R990" s="2"/>
-      <c r="S990" s="2"/>
-      <c r="T990" s="2"/>
-      <c r="U990" s="2"/>
-      <c r="V990" s="2"/>
-      <c r="W990" s="2"/>
-      <c r="X990" s="2"/>
-    </row>
-    <row r="991" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A991" s="2"/>
-      <c r="B991" s="2"/>
-      <c r="C991" s="2"/>
-      <c r="D991" s="2"/>
-      <c r="E991" s="2"/>
-      <c r="F991" s="2"/>
-      <c r="G991" s="2"/>
-      <c r="H991" s="2"/>
-      <c r="I991" s="2"/>
-      <c r="J991" s="2"/>
-      <c r="K991" s="2"/>
-      <c r="L991" s="2"/>
-      <c r="M991" s="2"/>
-      <c r="N991" s="2"/>
-      <c r="O991" s="2"/>
-      <c r="P991" s="2"/>
-      <c r="Q991" s="2"/>
-      <c r="R991" s="2"/>
-      <c r="S991" s="2"/>
-      <c r="T991" s="2"/>
-      <c r="U991" s="2"/>
-      <c r="V991" s="2"/>
-      <c r="W991" s="2"/>
-      <c r="X991" s="2"/>
-    </row>
-    <row r="992" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A992" s="2"/>
-      <c r="B992" s="2"/>
-      <c r="C992" s="2"/>
-      <c r="D992" s="2"/>
-      <c r="E992" s="2"/>
-      <c r="F992" s="2"/>
-      <c r="G992" s="2"/>
-      <c r="H992" s="2"/>
-      <c r="I992" s="2"/>
-      <c r="J992" s="2"/>
-      <c r="K992" s="2"/>
-      <c r="L992" s="2"/>
-      <c r="M992" s="2"/>
-      <c r="N992" s="2"/>
-      <c r="O992" s="2"/>
-      <c r="P992" s="2"/>
-      <c r="Q992" s="2"/>
-      <c r="R992" s="2"/>
-      <c r="S992" s="2"/>
-      <c r="T992" s="2"/>
-      <c r="U992" s="2"/>
-      <c r="V992" s="2"/>
-      <c r="W992" s="2"/>
-      <c r="X992" s="2"/>
-    </row>
-    <row r="993" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A993" s="2"/>
-      <c r="B993" s="2"/>
-      <c r="C993" s="2"/>
-      <c r="D993" s="2"/>
-      <c r="E993" s="2"/>
-      <c r="F993" s="2"/>
-      <c r="G993" s="2"/>
-      <c r="H993" s="2"/>
-      <c r="I993" s="2"/>
-      <c r="J993" s="2"/>
-      <c r="K993" s="2"/>
-      <c r="L993" s="2"/>
-      <c r="M993" s="2"/>
-      <c r="N993" s="2"/>
-      <c r="O993" s="2"/>
-      <c r="P993" s="2"/>
-      <c r="Q993" s="2"/>
-      <c r="R993" s="2"/>
-      <c r="S993" s="2"/>
-      <c r="T993" s="2"/>
-      <c r="U993" s="2"/>
-      <c r="V993" s="2"/>
-      <c r="W993" s="2"/>
-      <c r="X993" s="2"/>
-    </row>
-    <row r="994" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A994" s="2"/>
-      <c r="B994" s="2"/>
-      <c r="C994" s="2"/>
-      <c r="D994" s="2"/>
-      <c r="E994" s="2"/>
-      <c r="F994" s="2"/>
-      <c r="G994" s="2"/>
-      <c r="H994" s="2"/>
-      <c r="I994" s="2"/>
-      <c r="J994" s="2"/>
-      <c r="K994" s="2"/>
-      <c r="L994" s="2"/>
-      <c r="M994" s="2"/>
-      <c r="N994" s="2"/>
-      <c r="O994" s="2"/>
-      <c r="P994" s="2"/>
-      <c r="Q994" s="2"/>
-      <c r="R994" s="2"/>
-      <c r="S994" s="2"/>
-      <c r="T994" s="2"/>
-      <c r="U994" s="2"/>
-      <c r="V994" s="2"/>
-      <c r="W994" s="2"/>
-      <c r="X994" s="2"/>
-    </row>
-    <row r="995" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A995" s="2"/>
-      <c r="B995" s="2"/>
-      <c r="C995" s="2"/>
-      <c r="D995" s="2"/>
-      <c r="E995" s="2"/>
-      <c r="F995" s="2"/>
-      <c r="G995" s="2"/>
-      <c r="H995" s="2"/>
-      <c r="I995" s="2"/>
-      <c r="J995" s="2"/>
-      <c r="K995" s="2"/>
-      <c r="L995" s="2"/>
-      <c r="M995" s="2"/>
-      <c r="N995" s="2"/>
-      <c r="O995" s="2"/>
-      <c r="P995" s="2"/>
-      <c r="Q995" s="2"/>
-      <c r="R995" s="2"/>
-      <c r="S995" s="2"/>
-      <c r="T995" s="2"/>
-      <c r="U995" s="2"/>
-      <c r="V995" s="2"/>
-      <c r="W995" s="2"/>
-      <c r="X995" s="2"/>
-    </row>
-    <row r="996" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A996" s="2"/>
-      <c r="B996" s="2"/>
-      <c r="C996" s="2"/>
-      <c r="D996" s="2"/>
-      <c r="E996" s="2"/>
-      <c r="F996" s="2"/>
-      <c r="G996" s="2"/>
-      <c r="H996" s="2"/>
-      <c r="I996" s="2"/>
-      <c r="J996" s="2"/>
-      <c r="K996" s="2"/>
-      <c r="L996" s="2"/>
-      <c r="M996" s="2"/>
-      <c r="N996" s="2"/>
-      <c r="O996" s="2"/>
-      <c r="P996" s="2"/>
-      <c r="Q996" s="2"/>
-      <c r="R996" s="2"/>
-      <c r="S996" s="2"/>
-      <c r="T996" s="2"/>
-      <c r="U996" s="2"/>
-      <c r="V996" s="2"/>
-      <c r="W996" s="2"/>
-      <c r="X996" s="2"/>
-    </row>
-    <row r="997" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A997" s="2"/>
-      <c r="B997" s="2"/>
-      <c r="C997" s="2"/>
-      <c r="D997" s="2"/>
-      <c r="E997" s="2"/>
-      <c r="F997" s="2"/>
-      <c r="G997" s="2"/>
-      <c r="H997" s="2"/>
-      <c r="I997" s="2"/>
-      <c r="J997" s="2"/>
-      <c r="K997" s="2"/>
-      <c r="L997" s="2"/>
-      <c r="M997" s="2"/>
-      <c r="N997" s="2"/>
-      <c r="O997" s="2"/>
-      <c r="P997" s="2"/>
-      <c r="Q997" s="2"/>
-      <c r="R997" s="2"/>
-      <c r="S997" s="2"/>
-      <c r="T997" s="2"/>
-      <c r="U997" s="2"/>
-      <c r="V997" s="2"/>
-      <c r="W997" s="2"/>
-      <c r="X997" s="2"/>
-    </row>
-    <row r="998" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A998" s="2"/>
-      <c r="B998" s="2"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="2"/>
-      <c r="E998" s="2"/>
-      <c r="F998" s="2"/>
-      <c r="G998" s="2"/>
-      <c r="H998" s="2"/>
-      <c r="I998" s="2"/>
-      <c r="J998" s="2"/>
-      <c r="K998" s="2"/>
-      <c r="L998" s="2"/>
-      <c r="M998" s="2"/>
-      <c r="N998" s="2"/>
-      <c r="O998" s="2"/>
-      <c r="P998" s="2"/>
-      <c r="Q998" s="2"/>
-      <c r="R998" s="2"/>
-      <c r="S998" s="2"/>
-      <c r="T998" s="2"/>
-      <c r="U998" s="2"/>
-      <c r="V998" s="2"/>
-      <c r="W998" s="2"/>
-      <c r="X998" s="2"/>
-    </row>
-    <row r="999" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
-      <c r="P999" s="2"/>
-      <c r="Q999" s="2"/>
-      <c r="R999" s="2"/>
-      <c r="S999" s="2"/>
-      <c r="T999" s="2"/>
-      <c r="U999" s="2"/>
-      <c r="V999" s="2"/>
-      <c r="W999" s="2"/>
-      <c r="X999" s="2"/>
-    </row>
-    <row r="1000" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-    </row>
-    <row r="1001" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1001" s="2"/>
-      <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="2"/>
-      <c r="F1001" s="2"/>
-      <c r="G1001" s="2"/>
-      <c r="H1001" s="2"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="2"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="2"/>
-      <c r="M1001" s="2"/>
-      <c r="N1001" s="2"/>
-      <c r="O1001" s="2"/>
-      <c r="P1001" s="2"/>
-      <c r="Q1001" s="2"/>
-      <c r="R1001" s="2"/>
-      <c r="S1001" s="2"/>
-      <c r="T1001" s="2"/>
-      <c r="U1001" s="2"/>
-      <c r="V1001" s="2"/>
-      <c r="W1001" s="2"/>
-      <c r="X1001" s="2"/>
-    </row>
-    <row r="1002" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1002" s="2"/>
-      <c r="B1002" s="2"/>
-      <c r="C1002" s="2"/>
-      <c r="D1002" s="2"/>
-      <c r="E1002" s="2"/>
-      <c r="F1002" s="2"/>
-      <c r="G1002" s="2"/>
-      <c r="H1002" s="2"/>
-      <c r="I1002" s="2"/>
-      <c r="J1002" s="2"/>
-      <c r="K1002" s="2"/>
-      <c r="L1002" s="2"/>
-      <c r="M1002" s="2"/>
-      <c r="N1002" s="2"/>
-      <c r="O1002" s="2"/>
-      <c r="P1002" s="2"/>
-      <c r="Q1002" s="2"/>
-      <c r="R1002" s="2"/>
-      <c r="S1002" s="2"/>
-      <c r="T1002" s="2"/>
-      <c r="U1002" s="2"/>
-      <c r="V1002" s="2"/>
-      <c r="W1002" s="2"/>
-      <c r="X1002" s="2"/>
-    </row>
-    <row r="1003" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1003" s="2"/>
-      <c r="B1003" s="2"/>
-      <c r="C1003" s="2"/>
-      <c r="D1003" s="2"/>
-      <c r="E1003" s="2"/>
-      <c r="F1003" s="2"/>
-      <c r="G1003" s="2"/>
-      <c r="H1003" s="2"/>
-      <c r="I1003" s="2"/>
-      <c r="J1003" s="2"/>
-      <c r="K1003" s="2"/>
-      <c r="L1003" s="2"/>
-      <c r="M1003" s="2"/>
-      <c r="N1003" s="2"/>
-      <c r="O1003" s="2"/>
-      <c r="P1003" s="2"/>
-      <c r="Q1003" s="2"/>
-      <c r="R1003" s="2"/>
-      <c r="S1003" s="2"/>
-      <c r="T1003" s="2"/>
-      <c r="U1003" s="2"/>
-      <c r="V1003" s="2"/>
-      <c r="W1003" s="2"/>
-      <c r="X1003" s="2"/>
-    </row>
-    <row r="1004" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1004" s="2"/>
-      <c r="B1004" s="2"/>
-      <c r="C1004" s="2"/>
-      <c r="D1004" s="2"/>
-      <c r="E1004" s="2"/>
-      <c r="F1004" s="2"/>
-      <c r="G1004" s="2"/>
-      <c r="H1004" s="2"/>
-      <c r="I1004" s="2"/>
-      <c r="J1004" s="2"/>
-      <c r="K1004" s="2"/>
-      <c r="L1004" s="2"/>
-      <c r="M1004" s="2"/>
-      <c r="N1004" s="2"/>
-      <c r="O1004" s="2"/>
-      <c r="P1004" s="2"/>
-      <c r="Q1004" s="2"/>
-      <c r="R1004" s="2"/>
-      <c r="S1004" s="2"/>
-      <c r="T1004" s="2"/>
-      <c r="U1004" s="2"/>
-      <c r="V1004" s="2"/>
-      <c r="W1004" s="2"/>
-      <c r="X1004" s="2"/>
-    </row>
-    <row r="1005" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1005" s="2"/>
-      <c r="B1005" s="2"/>
-      <c r="C1005" s="2"/>
-      <c r="D1005" s="2"/>
-      <c r="E1005" s="2"/>
-      <c r="F1005" s="2"/>
-      <c r="G1005" s="2"/>
-      <c r="H1005" s="2"/>
-      <c r="I1005" s="2"/>
-      <c r="J1005" s="2"/>
-      <c r="K1005" s="2"/>
-      <c r="L1005" s="2"/>
-      <c r="M1005" s="2"/>
-      <c r="N1005" s="2"/>
-      <c r="O1005" s="2"/>
-      <c r="P1005" s="2"/>
-      <c r="Q1005" s="2"/>
-      <c r="R1005" s="2"/>
-      <c r="S1005" s="2"/>
-      <c r="T1005" s="2"/>
-      <c r="U1005" s="2"/>
-      <c r="V1005" s="2"/>
-      <c r="W1005" s="2"/>
-      <c r="X1005" s="2"/>
-    </row>
-    <row r="1006" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1006" s="2"/>
-      <c r="B1006" s="2"/>
-      <c r="C1006" s="2"/>
-      <c r="D1006" s="2"/>
-      <c r="E1006" s="2"/>
-      <c r="F1006" s="2"/>
-      <c r="G1006" s="2"/>
-      <c r="H1006" s="2"/>
-      <c r="I1006" s="2"/>
-      <c r="J1006" s="2"/>
-      <c r="K1006" s="2"/>
-      <c r="L1006" s="2"/>
-      <c r="M1006" s="2"/>
-      <c r="N1006" s="2"/>
-      <c r="O1006" s="2"/>
-      <c r="P1006" s="2"/>
-      <c r="Q1006" s="2"/>
-      <c r="R1006" s="2"/>
-      <c r="S1006" s="2"/>
-      <c r="T1006" s="2"/>
-      <c r="U1006" s="2"/>
-      <c r="V1006" s="2"/>
-      <c r="W1006" s="2"/>
-      <c r="X1006" s="2"/>
-    </row>
-    <row r="1007" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1007" s="2"/>
-      <c r="B1007" s="2"/>
-      <c r="C1007" s="2"/>
-      <c r="D1007" s="2"/>
-      <c r="E1007" s="2"/>
-      <c r="F1007" s="2"/>
-      <c r="G1007" s="2"/>
-      <c r="H1007" s="2"/>
-      <c r="I1007" s="2"/>
-      <c r="J1007" s="2"/>
-      <c r="K1007" s="2"/>
-      <c r="L1007" s="2"/>
-      <c r="M1007" s="2"/>
-      <c r="N1007" s="2"/>
-      <c r="O1007" s="2"/>
-      <c r="P1007" s="2"/>
-      <c r="Q1007" s="2"/>
-      <c r="R1007" s="2"/>
-      <c r="S1007" s="2"/>
-      <c r="T1007" s="2"/>
-      <c r="U1007" s="2"/>
-      <c r="V1007" s="2"/>
-      <c r="W1007" s="2"/>
-      <c r="X1007" s="2"/>
-    </row>
-    <row r="1008" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1008" s="2"/>
-      <c r="B1008" s="2"/>
-      <c r="C1008" s="2"/>
-      <c r="D1008" s="2"/>
-      <c r="E1008" s="2"/>
-      <c r="F1008" s="2"/>
-      <c r="G1008" s="2"/>
-      <c r="H1008" s="2"/>
-      <c r="I1008" s="2"/>
-      <c r="J1008" s="2"/>
-      <c r="K1008" s="2"/>
-      <c r="L1008" s="2"/>
-      <c r="M1008" s="2"/>
-      <c r="N1008" s="2"/>
-      <c r="O1008" s="2"/>
-      <c r="P1008" s="2"/>
-      <c r="Q1008" s="2"/>
-      <c r="R1008" s="2"/>
-      <c r="S1008" s="2"/>
-      <c r="T1008" s="2"/>
-      <c r="U1008" s="2"/>
-      <c r="V1008" s="2"/>
-      <c r="W1008" s="2"/>
-      <c r="X1008" s="2"/>
-    </row>
-    <row r="1009" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1009" s="2"/>
-      <c r="B1009" s="2"/>
-      <c r="C1009" s="2"/>
-      <c r="D1009" s="2"/>
-      <c r="E1009" s="2"/>
-      <c r="F1009" s="2"/>
-      <c r="G1009" s="2"/>
-      <c r="H1009" s="2"/>
-      <c r="I1009" s="2"/>
-      <c r="J1009" s="2"/>
-      <c r="K1009" s="2"/>
-      <c r="L1009" s="2"/>
-      <c r="M1009" s="2"/>
-      <c r="N1009" s="2"/>
-      <c r="O1009" s="2"/>
-      <c r="P1009" s="2"/>
-      <c r="Q1009" s="2"/>
-      <c r="R1009" s="2"/>
-      <c r="S1009" s="2"/>
-      <c r="T1009" s="2"/>
-      <c r="U1009" s="2"/>
-      <c r="V1009" s="2"/>
-      <c r="W1009" s="2"/>
-      <c r="X1009" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/data/Bolometer_readings_PulseForge.xlsx
+++ b/data/Bolometer_readings_PulseForge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valenetjong/Bayesian-Optimization-Ferroelectrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BA55E6-922A-264E-B1DB-C2DC0531B0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9639DE55-701F-C84C-A940-9F195D01657A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
   <si>
     <t>Sample ID</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Voltage (V)</t>
-  </si>
-  <si>
-    <t>Time (us)</t>
   </si>
   <si>
     <t>num upulse</t>
@@ -138,9 +135,6 @@
     <t>O_2D3R</t>
   </si>
   <si>
-    <t>KHM010_12</t>
-  </si>
-  <si>
     <t>KHM010_13</t>
   </si>
   <si>
@@ -183,9 +177,6 @@
     <t>KHM006_2</t>
   </si>
   <si>
-    <t>KHM006_12</t>
-  </si>
-  <si>
     <t>KHM006_19</t>
   </si>
   <si>
@@ -196,12 +187,6 @@
   </si>
   <si>
     <t>KHM006_13</t>
-  </si>
-  <si>
-    <t>KHM006_14</t>
-  </si>
-  <si>
-    <t>KHM006_16</t>
   </si>
   <si>
     <t>KHM006_20</t>
@@ -219,25 +204,16 @@
     <t>KHM006_24</t>
   </si>
   <si>
-    <t>KHM006_6</t>
-  </si>
-  <si>
     <t>KHM005_4</t>
   </si>
   <si>
     <t>KHM005_5</t>
   </si>
   <si>
-    <t>KHM005_6</t>
-  </si>
-  <si>
     <t>KHM005_10</t>
   </si>
   <si>
     <t>KHM005_11</t>
-  </si>
-  <si>
-    <t>Comments</t>
   </si>
   <si>
     <t>30um_O_1D</t>
@@ -253,12 +229,6 @@
   </si>
   <si>
     <t>30um_O_-1D</t>
-  </si>
-  <si>
-    <t>20um_O_3D</t>
-  </si>
-  <si>
-    <t>30um_O_3D</t>
   </si>
   <si>
     <t>30um_O_3R</t>
@@ -282,7 +252,10 @@
     <t>20um_O_5R</t>
   </si>
   <si>
-    <t>100um_O_1D</t>
+    <t>20um_O_2D2R</t>
+  </si>
+  <si>
+    <t>30um_O_-1D2R</t>
   </si>
 </sst>
 </file>
@@ -352,18 +325,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -378,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -390,31 +357,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -635,7 +590,7 @@
   <dimension ref="A1:X982"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:I17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -660,22 +615,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -695,10 +650,10 @@
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>799</v>
@@ -718,7 +673,7 @@
       <c r="H2" s="3">
         <v>0.58299000000000001</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="6">
         <v>1.2013560000000001</v>
       </c>
       <c r="J2" s="2"/>
@@ -739,10 +694,10 @@
     </row>
     <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="3">
         <v>738</v>
@@ -781,10 +736,10 @@
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3">
         <v>716</v>
@@ -825,10 +780,10 @@
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>716</v>
@@ -867,10 +822,10 @@
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>700</v>
@@ -884,7 +839,7 @@
       <c r="F6" s="3">
         <v>100</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>10.130000000000001</v>
       </c>
       <c r="H6" s="3">
@@ -911,10 +866,10 @@
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>750</v>
@@ -925,7 +880,7 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>100</v>
       </c>
       <c r="G7" s="3">
@@ -934,7 +889,7 @@
       <c r="H7" s="3">
         <v>0.13125000000000001</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>0.26329999999999998</v>
       </c>
       <c r="J7" s="2"/>
@@ -955,10 +910,10 @@
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C8" s="3">
         <v>799</v>
@@ -969,7 +924,7 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>100</v>
       </c>
       <c r="G8" s="3">
@@ -978,7 +933,7 @@
       <c r="H8" s="3">
         <v>0.89149</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>2.7753399999999999</v>
       </c>
       <c r="J8" s="2"/>
@@ -999,10 +954,10 @@
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3">
         <v>720</v>
@@ -1013,7 +968,7 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>100</v>
       </c>
       <c r="G9" s="3">
@@ -1022,7 +977,7 @@
       <c r="H9" s="3">
         <v>1.6650000000000002E-2</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="6"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1041,10 +996,10 @@
     </row>
     <row r="10" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3">
         <v>770</v>
@@ -1055,7 +1010,7 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>100</v>
       </c>
       <c r="G10" s="3">
@@ -1064,7 +1019,7 @@
       <c r="H10" s="3">
         <v>0.89090999999999998</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>2.59131</v>
       </c>
       <c r="J10" s="2"/>
@@ -1085,10 +1040,10 @@
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C11" s="3">
         <v>700</v>
@@ -1099,7 +1054,7 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>100</v>
       </c>
       <c r="G11" s="3">
@@ -1108,7 +1063,7 @@
       <c r="H11" s="3">
         <v>1.04965</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>2.5799799999999999</v>
       </c>
       <c r="J11" s="2"/>
@@ -1129,10 +1084,10 @@
     </row>
     <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3">
         <v>738</v>
@@ -1143,7 +1098,7 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>100</v>
       </c>
       <c r="G12" s="3">
@@ -1152,7 +1107,7 @@
       <c r="H12" s="3">
         <v>1.0869599999999999</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>3.1738200000000001</v>
       </c>
       <c r="J12" s="2"/>
@@ -1173,10 +1128,10 @@
     </row>
     <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3">
         <v>670</v>
@@ -1187,7 +1142,7 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>100</v>
       </c>
       <c r="G13" s="3">
@@ -1196,7 +1151,7 @@
       <c r="H13" s="3">
         <v>2.8660000000000001E-2</v>
       </c>
-      <c r="I13" s="8"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1215,10 +1170,10 @@
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3">
         <v>650</v>
@@ -1229,7 +1184,7 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>100</v>
       </c>
       <c r="G14" s="3">
@@ -1238,7 +1193,7 @@
       <c r="H14" s="3">
         <v>3.8940000000000002E-2</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="6">
         <v>0.13150000000000001</v>
       </c>
       <c r="J14" s="2"/>
@@ -1259,10 +1214,10 @@
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3">
         <v>670</v>
@@ -1273,7 +1228,7 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>100</v>
       </c>
       <c r="G15" s="3">
@@ -1282,7 +1237,7 @@
       <c r="H15" s="3">
         <v>0.23335</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="6">
         <v>0.45116000000000001</v>
       </c>
       <c r="J15" s="2"/>
@@ -1303,10 +1258,10 @@
     </row>
     <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="C16" s="3">
         <v>700</v>
@@ -1317,7 +1272,7 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>100</v>
       </c>
       <c r="G16" s="3">
@@ -1326,7 +1281,7 @@
       <c r="H16" s="3">
         <v>1.1618599999999999</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="6">
         <v>2.1266400000000001</v>
       </c>
       <c r="J16" s="2"/>
@@ -1347,10 +1302,10 @@
     </row>
     <row r="17" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="C17" s="3">
         <v>716</v>
@@ -1361,7 +1316,7 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>100</v>
       </c>
       <c r="G17" s="3">
@@ -1370,7 +1325,7 @@
       <c r="H17" s="3">
         <v>1.38449</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <v>3.46821</v>
       </c>
       <c r="J17" s="2"/>
@@ -1391,10 +1346,10 @@
     </row>
     <row r="18" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3">
         <v>700</v>
@@ -1405,7 +1360,7 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>100</v>
       </c>
       <c r="G18" s="3">
@@ -1414,7 +1369,7 @@
       <c r="H18" s="3">
         <v>1.5509200000000001</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>3.6858499999999998</v>
       </c>
       <c r="J18" s="2"/>
@@ -1435,10 +1390,10 @@
     </row>
     <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3">
         <v>716</v>
@@ -1449,7 +1404,7 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>100</v>
       </c>
       <c r="G19" s="3">
@@ -1458,7 +1413,7 @@
       <c r="H19" s="3">
         <v>1.33918</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="6">
         <v>3.4456600000000002</v>
       </c>
       <c r="J19" s="2"/>
@@ -1479,10 +1434,10 @@
     </row>
     <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3">
         <v>670</v>
@@ -1493,7 +1448,7 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="5">
         <v>100</v>
       </c>
       <c r="G20" s="3">
@@ -1502,7 +1457,7 @@
       <c r="H20" s="3">
         <v>1.4474</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <v>2.6515499999999999</v>
       </c>
       <c r="J20" s="2"/>
@@ -1523,10 +1478,10 @@
     </row>
     <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="3">
         <v>650</v>
@@ -1537,7 +1492,7 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>100</v>
       </c>
       <c r="G21" s="3">
@@ -1565,10 +1520,10 @@
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3">
         <v>620</v>
@@ -1579,7 +1534,7 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>100</v>
       </c>
       <c r="G22" s="3">
@@ -26293,55 +26248,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X978"/>
+  <dimension ref="A1:X971"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
-    <col min="11" max="24" width="8.6640625" customWidth="1"/>
+    <col min="1" max="3" width="13.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="7" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" style="7" customWidth="1"/>
+    <col min="11" max="24" width="8.6640625" style="7" customWidth="1"/>
+    <col min="25" max="16384" width="14.5" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -26358,28 +26312,32 @@
       <c r="X1" s="2"/>
     </row>
     <row r="2" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11">
+      <c r="C2" s="2">
         <v>2000</v>
       </c>
-      <c r="D2" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="2">
         <v>100</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="2">
         <v>5.18</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
+      <c r="H2" s="2">
+        <v>0.50601257087935636</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -26395,29 +26353,33 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11">
+      <c r="C3" s="2">
         <v>2500</v>
       </c>
-      <c r="D3" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="2">
         <v>100</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="2">
         <v>9.18</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="H3" s="2">
+        <v>4.0476299467258663</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -26434,26 +26396,32 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11">
-        <v>3000</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="A4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="F4" s="11">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
         <v>100</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+      <c r="G4" s="2">
+        <v>5.38</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.9173717561986604</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -26470,28 +26438,32 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11">
-        <v>2500</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="11">
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="G5" s="11">
-        <v>5.38</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
+      <c r="G5" s="2">
+        <v>10.27</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.7554723116591644</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -26508,28 +26480,34 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11">
-        <v>3000</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="2">
         <v>100</v>
       </c>
-      <c r="G6" s="11">
-        <v>10.27</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="G6" s="2">
+        <v>2.73</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.26720099358540689</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.87302572996540206</v>
+      </c>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -26546,35 +26524,34 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2500</v>
-      </c>
-      <c r="D7" s="11">
-        <v>500</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="B7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="2">
         <v>100</v>
       </c>
-      <c r="G7" s="11">
-        <v>2.73</v>
-      </c>
-      <c r="H7" s="11">
-        <f>TRUNC(0.267200993585407,5)</f>
-        <v>0.26719999999999999</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0.87302572996540206</v>
-      </c>
-      <c r="J7" s="10"/>
+      <c r="G7" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.84387099208632954</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.6001323817483191</v>
+      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -26591,35 +26568,34 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2700</v>
-      </c>
-      <c r="D8" s="11">
-        <v>500</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="A8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="11">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
         <v>100</v>
       </c>
-      <c r="G8" s="11">
-        <v>3.4</v>
-      </c>
-      <c r="H8" s="11">
-        <f>TRUNC(0.84387099208633,5)</f>
-        <v>0.84387000000000001</v>
-      </c>
-      <c r="I8" s="11">
-        <v>2.6001323817483191</v>
-      </c>
-      <c r="J8" s="10"/>
+      <c r="G8" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.58856787583946013</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1.3404698130255503</v>
+      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -26636,31 +26612,34 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="11">
-        <v>3000</v>
-      </c>
-      <c r="D9" s="11">
-        <v>500</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="11">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
         <v>100</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11">
-        <f>TRUNC(1.08099093768822,5)</f>
-        <v>1.0809899999999999</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
+      <c r="G9" s="2">
+        <v>6.44</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.6505236082036818</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3.8220865188186721</v>
+      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -26677,35 +26656,34 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="11">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2">
         <v>2200</v>
       </c>
-      <c r="D10" s="11">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="2">
         <v>100</v>
       </c>
-      <c r="G10" s="11">
-        <v>3.79</v>
-      </c>
-      <c r="H10" s="11">
-        <f>TRUNC(0.58856787583946,5)</f>
-        <v>0.58855999999999997</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1.3404698130255503</v>
-      </c>
-      <c r="J10" s="10"/>
+      <c r="G10" s="2">
+        <v>5.36</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.0744613816207331</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3.2202096407411043</v>
+      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -26722,35 +26700,34 @@
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="A11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="2">
         <v>2700</v>
       </c>
-      <c r="D11" s="11">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D11" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="2">
         <v>100</v>
       </c>
-      <c r="G11" s="11">
-        <v>6.44</v>
-      </c>
-      <c r="H11" s="11">
-        <f>TRUNC(1.65052360820368,5)</f>
-        <v>1.65052</v>
-      </c>
-      <c r="I11" s="11">
-        <v>3.8220865188186721</v>
-      </c>
-      <c r="J11" s="10"/>
+      <c r="G11" s="2">
+        <v>8.99</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2.4380445972106783</v>
+      </c>
+      <c r="I11" s="2">
+        <v>4.582419233725969</v>
+      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -26767,35 +26744,32 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="11">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="2">
         <v>2200</v>
       </c>
-      <c r="D12" s="11">
-        <v>1500</v>
-      </c>
-      <c r="E12" s="11">
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="2">
         <v>100</v>
       </c>
-      <c r="G12" s="11">
-        <v>5.36</v>
-      </c>
-      <c r="H12" s="11">
-        <f>TRUNC(1.07446138162073,5)</f>
-        <v>1.07446</v>
-      </c>
-      <c r="I12" s="11">
-        <v>3.2202096407411043</v>
-      </c>
-      <c r="J12" s="10"/>
+      <c r="G12" s="2">
+        <v>6.65</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.1839597643106621</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -26811,29 +26785,33 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11">
-        <v>2500</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1500</v>
-      </c>
-      <c r="E13" s="11">
+    <row r="13" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="2">
         <v>100</v>
       </c>
-      <c r="G13" s="11">
-        <v>7.48</v>
-      </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10"/>
+      <c r="G13" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.87551570960138103</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -26850,34 +26828,32 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="11">
-        <v>2700</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1500</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="A14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2200</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="2">
         <v>100</v>
       </c>
-      <c r="G14" s="11">
-        <v>8.99</v>
-      </c>
-      <c r="H14" s="11">
-        <v>2.4380445972106783</v>
-      </c>
-      <c r="I14" s="11">
-        <v>4.582419233725969</v>
-      </c>
-      <c r="J14" s="10"/>
+      <c r="G14" s="2">
+        <v>11.02</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1.2322200921772852</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -26894,30 +26870,32 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="11">
-        <v>3000</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1500</v>
-      </c>
-      <c r="E15" s="11">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
+      <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="2">
         <v>100</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
-        <v>2.425604770757245</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10"/>
+      <c r="G15" s="2">
+        <v>14.67</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1.3619209977790856</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -26934,32 +26912,32 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="11">
-        <v>2200</v>
-      </c>
-      <c r="D16" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="2">
         <v>100</v>
       </c>
-      <c r="G16" s="11">
-        <v>6.65</v>
-      </c>
-      <c r="H16" s="11">
-        <v>1.149744174070388</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="10"/>
+      <c r="G16" s="2">
+        <v>17.38</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3.183844439171668</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -26976,28 +26954,32 @@
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11">
-        <v>2700</v>
-      </c>
-      <c r="D17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="2">
         <v>100</v>
       </c>
-      <c r="G17" s="11">
-        <v>11.01</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10"/>
+      <c r="G17" s="2">
+        <v>21.81</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2.1588309662983209</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -27013,33 +26995,33 @@
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="11">
-        <v>2000</v>
-      </c>
-      <c r="D18" s="11">
-        <v>5000</v>
-      </c>
-      <c r="E18" s="11">
+    <row r="18" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2500</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="2">
         <v>100</v>
       </c>
-      <c r="G18" s="11">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0.78012094963561462</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="10"/>
+      <c r="G18" s="2">
+        <v>7.48</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1.2238139224483209</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -27055,33 +27037,33 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="11">
-        <v>2200</v>
-      </c>
-      <c r="D19" s="11">
-        <v>5000</v>
-      </c>
-      <c r="E19" s="11">
+    <row r="19" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2700</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="2">
         <v>100</v>
       </c>
-      <c r="G19" s="11">
-        <v>11.02</v>
-      </c>
-      <c r="H19" s="11">
-        <v>1.211619529929796</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10"/>
+      <c r="G19" s="2">
+        <v>11.01</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2.7431803264157835</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -27098,32 +27080,32 @@
       <c r="X19" s="2"/>
     </row>
     <row r="20" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2">
         <v>2500</v>
       </c>
-      <c r="D20" s="11">
-        <v>5000</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="11">
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
         <v>100</v>
       </c>
-      <c r="G20" s="11">
-        <v>14.67</v>
-      </c>
-      <c r="H20" s="11">
-        <v>1.2959347329511699</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="10"/>
+      <c r="G20" s="2">
+        <v>5.38</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1.2788643799617569</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -27140,37 +27122,39 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="11">
-        <v>2700</v>
-      </c>
-      <c r="D21" s="11">
-        <v>5000</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2">
+        <v>799</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="2">
         <v>100</v>
       </c>
-      <c r="G21" s="11">
-        <v>17.38</v>
-      </c>
-      <c r="H21" s="11">
-        <v>3.183844439171668</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="G21" s="2">
+        <v>5.24</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.58298888108743629</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1.2013569985324948</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -27182,37 +27166,37 @@
       <c r="X21" s="2"/>
     </row>
     <row r="22" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="11">
-        <v>3000</v>
-      </c>
-      <c r="D22" s="11">
-        <v>5000</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2">
+        <v>738</v>
+      </c>
+      <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="11">
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
         <v>100</v>
       </c>
-      <c r="G22" s="11">
-        <v>21.81</v>
-      </c>
-      <c r="H22" s="11">
-        <v>2.0296711191194352</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
+      <c r="G22" s="2">
+        <v>7.52</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.5217383002119359</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -27223,38 +27207,38 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="11">
-        <v>2500</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1500</v>
-      </c>
-      <c r="E23" s="11">
+    <row r="23" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="2">
+        <v>716</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="2">
         <v>100</v>
       </c>
-      <c r="G23" s="11">
-        <v>7.48</v>
-      </c>
-      <c r="H23" s="11">
-        <v>1.2169831079627338</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
+      <c r="G23" s="2">
+        <v>10.71</v>
+      </c>
+      <c r="H23" s="2">
+        <v>3.56655476630042</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -27265,38 +27249,40 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="11">
-        <v>2700</v>
-      </c>
-      <c r="D24" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E24" s="11">
+    <row r="24" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2">
+        <v>716</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="2">
         <v>100</v>
       </c>
-      <c r="G24" s="11">
-        <v>11.01</v>
-      </c>
-      <c r="H24" s="11">
-        <v>2.7375854992408799</v>
-      </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="G24" s="2">
+        <v>14.89</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1.6610901372394564</v>
+      </c>
+      <c r="I24" s="2">
+        <v>3.5136521918176413</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -27307,59 +27293,79 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="11">
-        <v>2500</v>
-      </c>
-      <c r="D25" s="11">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="C25" s="2">
+        <v>700</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
         <v>1</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="2">
         <v>100</v>
       </c>
-      <c r="G25" s="11">
-        <v>5.38</v>
-      </c>
-      <c r="H25" s="11">
-        <v>1.254034099860784</v>
-      </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-    </row>
-    <row r="26" spans="1:24" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="G25" s="6">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1.4239806239874728</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3.4708714822041062</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3">
+        <v>750</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4.51</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.13124992209062411</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.26329823795538759</v>
+      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -27376,34 +27382,34 @@
       <c r="X26" s="2"/>
     </row>
     <row r="27" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="11">
+      <c r="A27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3">
         <v>799</v>
       </c>
-      <c r="D27" s="11">
-        <v>500</v>
-      </c>
-      <c r="E27" s="11">
+      <c r="D27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="5">
         <v>100</v>
       </c>
-      <c r="G27" s="11">
-        <v>5.24</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0.58298888108743629</v>
-      </c>
-      <c r="I27" s="13">
-        <v>1.2013569985324948</v>
-      </c>
-      <c r="J27" s="11"/>
+      <c r="G27" s="3">
+        <v>5.37</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.89149093430637516</v>
+      </c>
+      <c r="I27" s="6">
+        <v>2.7753404356378253</v>
+      </c>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -27420,32 +27426,32 @@
       <c r="X27" s="2"/>
     </row>
     <row r="28" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="11">
-        <v>738</v>
-      </c>
-      <c r="D28" s="11">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="3">
+        <v>720</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="3">
         <v>1</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="5">
         <v>100</v>
       </c>
-      <c r="G28" s="11">
-        <v>7.52</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0.5217383002119359</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="G28" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1.6645384750571E-2</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -27462,32 +27468,34 @@
       <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="11">
-        <v>716</v>
-      </c>
-      <c r="D29" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E29" s="11">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3">
+        <v>770</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="3">
         <v>1</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="5">
         <v>100</v>
       </c>
-      <c r="G29" s="11">
-        <v>10.71</v>
-      </c>
-      <c r="H29" s="11">
-        <v>3.56655476630042</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="G29" s="3">
+        <v>4.88</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.89091034518113621</v>
+      </c>
+      <c r="I29" s="6">
+        <v>2.5913062464887977</v>
+      </c>
+      <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -27504,34 +27512,34 @@
       <c r="X29" s="2"/>
     </row>
     <row r="30" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="11">
-        <v>716</v>
-      </c>
-      <c r="D30" s="11">
-        <v>5000</v>
-      </c>
-      <c r="E30" s="11">
+      <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="3">
+        <v>700</v>
+      </c>
+      <c r="D30" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="11">
+      <c r="E30" s="3">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
         <v>100</v>
       </c>
-      <c r="G30" s="11">
-        <v>14.89</v>
-      </c>
-      <c r="H30" s="12">
-        <v>1.6610901372394564</v>
-      </c>
-      <c r="I30" s="11">
-        <v>3.5136521918176413</v>
-      </c>
-      <c r="J30" s="11"/>
+      <c r="G30" s="3">
+        <v>6.76</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1.0496539055848051</v>
+      </c>
+      <c r="I30" s="6">
+        <v>2.5799843592590488</v>
+      </c>
+      <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -27547,78 +27555,76 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="11">
-        <v>700</v>
-      </c>
-      <c r="D31" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E31" s="11">
+    <row r="31" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="3">
+        <v>738</v>
+      </c>
+      <c r="D31" s="3">
         <v>1</v>
       </c>
-      <c r="F31" s="11">
+      <c r="E31" s="3">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
         <v>100</v>
       </c>
-      <c r="G31" s="13">
-        <v>10.130000000000001</v>
-      </c>
-      <c r="H31" s="11">
-        <v>1.4239806239874728</v>
-      </c>
-      <c r="I31" s="11">
-        <v>3.4708714822041062</v>
-      </c>
-      <c r="J31" s="11"/>
+      <c r="G31" s="3">
+        <v>7.77</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1.0869649138691204</v>
+      </c>
+      <c r="I31" s="6">
+        <v>3.1738185691110727</v>
+      </c>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
     </row>
     <row r="32" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C32" s="3">
-        <v>750</v>
+        <v>670</v>
       </c>
       <c r="D32" s="3">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="5">
         <v>100</v>
       </c>
       <c r="G32" s="3">
-        <v>4.51</v>
+        <v>6.02</v>
       </c>
       <c r="H32" s="3">
-        <v>0.13124992209062411</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0.26329823795538759</v>
-      </c>
+        <v>2.8656104333789099E-2</v>
+      </c>
+      <c r="I32" s="6"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -27637,31 +27643,31 @@
     </row>
     <row r="33" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C33" s="3">
-        <v>799</v>
+        <v>650</v>
       </c>
       <c r="D33" s="3">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="E33" s="3">
         <v>1</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="5">
         <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>5.37</v>
+        <v>8.73</v>
       </c>
       <c r="H33" s="3">
-        <v>0.89149093430637516</v>
-      </c>
-      <c r="I33" s="8">
-        <v>2.7753404356378253</v>
+        <v>3.8935849061613799E-2</v>
+      </c>
+      <c r="I33" s="6">
+        <v>0.1315049942519029</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -27681,30 +27687,32 @@
     </row>
     <row r="34" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="3">
-        <v>720</v>
+        <v>670</v>
       </c>
       <c r="D34" s="3">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="E34" s="3">
         <v>1</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="5">
         <v>100</v>
       </c>
       <c r="G34" s="3">
-        <v>4.07</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="H34" s="3">
-        <v>1.6645384750571E-2</v>
-      </c>
-      <c r="I34" s="6"/>
+        <v>0.2333478836456564</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.4511637114621348</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -27723,31 +27731,31 @@
     </row>
     <row r="35" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C35" s="3">
-        <v>770</v>
+        <v>700</v>
       </c>
       <c r="D35" s="3">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="E35" s="3">
         <v>1</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="5">
         <v>100</v>
       </c>
       <c r="G35" s="3">
-        <v>4.88</v>
+        <v>10.48</v>
       </c>
       <c r="H35" s="3">
-        <v>0.89091034518113621</v>
-      </c>
-      <c r="I35" s="8">
-        <v>2.5913062464887977</v>
+        <v>1.1618574566411657</v>
+      </c>
+      <c r="I35" s="6">
+        <v>2.1266397485053652</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -27767,31 +27775,31 @@
     </row>
     <row r="36" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C36" s="3">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="D36" s="3">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="E36" s="3">
         <v>1</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="5">
         <v>100</v>
       </c>
       <c r="G36" s="3">
-        <v>6.76</v>
+        <v>11.01</v>
       </c>
       <c r="H36" s="3">
-        <v>1.0496539055848051</v>
-      </c>
-      <c r="I36" s="8">
-        <v>2.5799843592590488</v>
+        <v>1.3844885171967043</v>
+      </c>
+      <c r="I36" s="6">
+        <v>3.4682128406428419</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -27811,31 +27819,31 @@
     </row>
     <row r="37" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C37" s="3">
-        <v>738</v>
+        <v>700</v>
       </c>
       <c r="D37" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="E37" s="3">
         <v>1</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="5">
         <v>100</v>
       </c>
       <c r="G37" s="3">
-        <v>7.77</v>
+        <v>14.71</v>
       </c>
       <c r="H37" s="3">
-        <v>1.0869649138691204</v>
-      </c>
-      <c r="I37" s="8">
-        <v>3.1738185691110727</v>
+        <v>1.5509228505664854</v>
+      </c>
+      <c r="I37" s="6">
+        <v>3.685852431471957</v>
       </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -27855,30 +27863,32 @@
     </row>
     <row r="38" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" s="3">
-        <v>670</v>
+        <v>716</v>
       </c>
       <c r="D38" s="3">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="E38" s="3">
         <v>1</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="5">
         <v>100</v>
       </c>
       <c r="G38" s="3">
-        <v>6.02</v>
+        <v>15.44</v>
       </c>
       <c r="H38" s="3">
-        <v>2.8656104333789099E-2</v>
-      </c>
-      <c r="I38" s="6"/>
+        <v>1.3391797171675444</v>
+      </c>
+      <c r="I38" s="6">
+        <v>3.4456555826383841</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -27897,31 +27907,31 @@
     </row>
     <row r="39" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="3">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="D39" s="3">
-        <v>2000</v>
+        <v>5</v>
       </c>
       <c r="E39" s="3">
         <v>1</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="5">
         <v>100</v>
       </c>
       <c r="G39" s="3">
-        <v>8.73</v>
+        <v>13.37</v>
       </c>
       <c r="H39" s="3">
-        <v>3.8935849061613799E-2</v>
-      </c>
-      <c r="I39" s="8">
-        <v>0.1315049942519029</v>
+        <v>1.4474043604684743</v>
+      </c>
+      <c r="I39" s="6">
+        <v>2.6515468360223791</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -27941,32 +27951,30 @@
     </row>
     <row r="40" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C40" s="3">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="D40" s="3">
-        <v>2000</v>
+        <v>5</v>
       </c>
       <c r="E40" s="3">
         <v>1</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="5">
         <v>100</v>
       </c>
       <c r="G40" s="3">
-        <v>9.3800000000000008</v>
+        <v>12.5</v>
       </c>
       <c r="H40" s="3">
-        <v>0.2333478836456564</v>
-      </c>
-      <c r="I40" s="8">
-        <v>0.4511637114621348</v>
-      </c>
+        <v>4.3957721493509301E-2</v>
+      </c>
+      <c r="I40" s="3"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -27985,32 +27993,30 @@
     </row>
     <row r="41" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C41" s="3">
-        <v>700</v>
+        <v>620</v>
       </c>
       <c r="D41" s="3">
-        <v>2000</v>
+        <v>5</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="5">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>10.48</v>
+        <v>11.29</v>
       </c>
       <c r="H41" s="3">
-        <v>1.1618574566411657</v>
-      </c>
-      <c r="I41" s="8">
-        <v>2.1266397485053652</v>
-      </c>
+        <v>3.03715475384807E-2</v>
+      </c>
+      <c r="I41" s="3"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -28028,33 +28034,15 @@
       <c r="X41" s="2"/>
     </row>
     <row r="42" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="3">
-        <v>716</v>
-      </c>
-      <c r="D42" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="7">
-        <v>100</v>
-      </c>
-      <c r="G42" s="3">
-        <v>11.01</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1.3844885171967043</v>
-      </c>
-      <c r="I42" s="8">
-        <v>3.4682128406428419</v>
-      </c>
+      <c r="A42" s="2"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -28072,29 +28060,15 @@
       <c r="X42" s="2"/>
     </row>
     <row r="43" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="3">
-        <v>620</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="7">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>7.8</v>
-      </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -28112,33 +28086,15 @@
       <c r="X43" s="2"/>
     </row>
     <row r="44" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="3">
-        <v>700</v>
-      </c>
-      <c r="D44" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="7">
-        <v>100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>14.71</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1.5509228505664854</v>
-      </c>
-      <c r="I44" s="8">
-        <v>3.685852431471957</v>
-      </c>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -28156,33 +28112,15 @@
       <c r="X44" s="2"/>
     </row>
     <row r="45" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="3">
-        <v>716</v>
-      </c>
-      <c r="D45" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="7">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>15.44</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1.3391797171675444</v>
-      </c>
-      <c r="I45" s="8">
-        <v>3.4456555826383841</v>
-      </c>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -28200,33 +28138,15 @@
       <c r="X45" s="2"/>
     </row>
     <row r="46" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="3">
-        <v>670</v>
-      </c>
-      <c r="D46" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="7">
-        <v>100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>13.37</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1.4474043604684743</v>
-      </c>
-      <c r="I46" s="8">
-        <v>2.6515468360223791</v>
-      </c>
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -28244,31 +28164,15 @@
       <c r="X46" s="2"/>
     </row>
     <row r="47" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="3">
-        <v>650</v>
-      </c>
-      <c r="D47" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="7">
-        <v>100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>12.5</v>
-      </c>
-      <c r="H47" s="3">
-        <v>4.3957721493509301E-2</v>
-      </c>
-      <c r="I47" s="5"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -28286,31 +28190,15 @@
       <c r="X47" s="2"/>
     </row>
     <row r="48" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="3">
-        <v>620</v>
-      </c>
-      <c r="D48" s="3">
-        <v>5000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="7">
-        <v>100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>11.29</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3.03715475384807E-2</v>
-      </c>
-      <c r="I48" s="5"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -28329,8 +28217,8 @@
     </row>
     <row r="49" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -52325,188 +52213,6 @@
       <c r="W971" s="2"/>
       <c r="X971" s="2"/>
     </row>
-    <row r="972" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A972" s="2"/>
-      <c r="B972" s="2"/>
-      <c r="C972" s="2"/>
-      <c r="D972" s="2"/>
-      <c r="E972" s="2"/>
-      <c r="F972" s="2"/>
-      <c r="G972" s="2"/>
-      <c r="H972" s="2"/>
-      <c r="I972" s="2"/>
-      <c r="J972" s="2"/>
-      <c r="K972" s="2"/>
-      <c r="L972" s="2"/>
-      <c r="M972" s="2"/>
-      <c r="N972" s="2"/>
-      <c r="O972" s="2"/>
-      <c r="P972" s="2"/>
-      <c r="Q972" s="2"/>
-      <c r="R972" s="2"/>
-      <c r="S972" s="2"/>
-      <c r="T972" s="2"/>
-      <c r="U972" s="2"/>
-      <c r="V972" s="2"/>
-      <c r="W972" s="2"/>
-      <c r="X972" s="2"/>
-    </row>
-    <row r="973" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A973" s="2"/>
-      <c r="B973" s="2"/>
-      <c r="C973" s="2"/>
-      <c r="D973" s="2"/>
-      <c r="E973" s="2"/>
-      <c r="F973" s="2"/>
-      <c r="G973" s="2"/>
-      <c r="H973" s="2"/>
-      <c r="I973" s="2"/>
-      <c r="J973" s="2"/>
-      <c r="K973" s="2"/>
-      <c r="L973" s="2"/>
-      <c r="M973" s="2"/>
-      <c r="N973" s="2"/>
-      <c r="O973" s="2"/>
-      <c r="P973" s="2"/>
-      <c r="Q973" s="2"/>
-      <c r="R973" s="2"/>
-      <c r="S973" s="2"/>
-      <c r="T973" s="2"/>
-      <c r="U973" s="2"/>
-      <c r="V973" s="2"/>
-      <c r="W973" s="2"/>
-      <c r="X973" s="2"/>
-    </row>
-    <row r="974" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A974" s="2"/>
-      <c r="B974" s="2"/>
-      <c r="C974" s="2"/>
-      <c r="D974" s="2"/>
-      <c r="E974" s="2"/>
-      <c r="F974" s="2"/>
-      <c r="G974" s="2"/>
-      <c r="H974" s="2"/>
-      <c r="I974" s="2"/>
-      <c r="J974" s="2"/>
-      <c r="K974" s="2"/>
-      <c r="L974" s="2"/>
-      <c r="M974" s="2"/>
-      <c r="N974" s="2"/>
-      <c r="O974" s="2"/>
-      <c r="P974" s="2"/>
-      <c r="Q974" s="2"/>
-      <c r="R974" s="2"/>
-      <c r="S974" s="2"/>
-      <c r="T974" s="2"/>
-      <c r="U974" s="2"/>
-      <c r="V974" s="2"/>
-      <c r="W974" s="2"/>
-      <c r="X974" s="2"/>
-    </row>
-    <row r="975" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A975" s="2"/>
-      <c r="B975" s="2"/>
-      <c r="C975" s="2"/>
-      <c r="D975" s="2"/>
-      <c r="E975" s="2"/>
-      <c r="F975" s="2"/>
-      <c r="G975" s="2"/>
-      <c r="H975" s="2"/>
-      <c r="I975" s="2"/>
-      <c r="J975" s="2"/>
-      <c r="K975" s="2"/>
-      <c r="L975" s="2"/>
-      <c r="M975" s="2"/>
-      <c r="N975" s="2"/>
-      <c r="O975" s="2"/>
-      <c r="P975" s="2"/>
-      <c r="Q975" s="2"/>
-      <c r="R975" s="2"/>
-      <c r="S975" s="2"/>
-      <c r="T975" s="2"/>
-      <c r="U975" s="2"/>
-      <c r="V975" s="2"/>
-      <c r="W975" s="2"/>
-      <c r="X975" s="2"/>
-    </row>
-    <row r="976" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A976" s="2"/>
-      <c r="B976" s="2"/>
-      <c r="C976" s="2"/>
-      <c r="D976" s="2"/>
-      <c r="E976" s="2"/>
-      <c r="F976" s="2"/>
-      <c r="G976" s="2"/>
-      <c r="H976" s="2"/>
-      <c r="I976" s="2"/>
-      <c r="J976" s="2"/>
-      <c r="K976" s="2"/>
-      <c r="L976" s="2"/>
-      <c r="M976" s="2"/>
-      <c r="N976" s="2"/>
-      <c r="O976" s="2"/>
-      <c r="P976" s="2"/>
-      <c r="Q976" s="2"/>
-      <c r="R976" s="2"/>
-      <c r="S976" s="2"/>
-      <c r="T976" s="2"/>
-      <c r="U976" s="2"/>
-      <c r="V976" s="2"/>
-      <c r="W976" s="2"/>
-      <c r="X976" s="2"/>
-    </row>
-    <row r="977" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A977" s="2"/>
-      <c r="B977" s="2"/>
-      <c r="C977" s="2"/>
-      <c r="D977" s="2"/>
-      <c r="E977" s="2"/>
-      <c r="F977" s="2"/>
-      <c r="G977" s="2"/>
-      <c r="H977" s="2"/>
-      <c r="I977" s="2"/>
-      <c r="J977" s="2"/>
-      <c r="K977" s="2"/>
-      <c r="L977" s="2"/>
-      <c r="M977" s="2"/>
-      <c r="N977" s="2"/>
-      <c r="O977" s="2"/>
-      <c r="P977" s="2"/>
-      <c r="Q977" s="2"/>
-      <c r="R977" s="2"/>
-      <c r="S977" s="2"/>
-      <c r="T977" s="2"/>
-      <c r="U977" s="2"/>
-      <c r="V977" s="2"/>
-      <c r="W977" s="2"/>
-      <c r="X977" s="2"/>
-    </row>
-    <row r="978" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A978" s="2"/>
-      <c r="B978" s="2"/>
-      <c r="C978" s="2"/>
-      <c r="D978" s="2"/>
-      <c r="E978" s="2"/>
-      <c r="F978" s="2"/>
-      <c r="G978" s="2"/>
-      <c r="H978" s="2"/>
-      <c r="I978" s="2"/>
-      <c r="J978" s="2"/>
-      <c r="K978" s="2"/>
-      <c r="L978" s="2"/>
-      <c r="M978" s="2"/>
-      <c r="N978" s="2"/>
-      <c r="O978" s="2"/>
-      <c r="P978" s="2"/>
-      <c r="Q978" s="2"/>
-      <c r="R978" s="2"/>
-      <c r="S978" s="2"/>
-      <c r="T978" s="2"/>
-      <c r="U978" s="2"/>
-      <c r="V978" s="2"/>
-      <c r="W978" s="2"/>
-      <c r="X978" s="2"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/data/Bolometer_readings_PulseForge.xlsx
+++ b/data/Bolometer_readings_PulseForge.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valenetjong/Bayesian-Optimization-Ferroelectrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9639DE55-701F-C84C-A940-9F195D01657A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFB3D3F-E6A9-D946-871F-AA18C1637A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26250,8 +26250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26549,7 +26549,7 @@
         <v>0.84387099208632954</v>
       </c>
       <c r="I7" s="2">
-        <v>2.6001323817483191</v>
+        <v>2.677244640050493</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -26593,7 +26593,7 @@
         <v>0.58856787583946013</v>
       </c>
       <c r="I8" s="2">
-        <v>1.3404698130255503</v>
+        <v>1.4181565912852203</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -26637,7 +26637,7 @@
         <v>1.6505236082036818</v>
       </c>
       <c r="I9" s="2">
-        <v>3.8220865188186721</v>
+        <v>3.8050528055652655</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -26681,7 +26681,7 @@
         <v>1.0744613816207331</v>
       </c>
       <c r="I10" s="2">
-        <v>3.2202096407411043</v>
+        <v>3.3348561928152627</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -26725,7 +26725,7 @@
         <v>2.4380445972106783</v>
       </c>
       <c r="I11" s="2">
-        <v>4.582419233725969</v>
+        <v>4.5351528173590028</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>

--- a/data/Bolometer_readings_PulseForge.xlsx
+++ b/data/Bolometer_readings_PulseForge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valenetjong/Bayesian-Optimization-Ferroelectrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFB3D3F-E6A9-D946-871F-AA18C1637A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF80E99-0B81-8947-A465-36034AFC4636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="74">
   <si>
     <t>Sample ID</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>30um_O_-1D2R</t>
+  </si>
+  <si>
+    <t>30um_O_3D</t>
   </si>
 </sst>
 </file>
@@ -26250,8 +26253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26336,7 +26339,9 @@
       <c r="H2" s="2">
         <v>0.50601257087935636</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -26378,7 +26383,9 @@
       <c r="H3" s="2">
         <v>4.0476299467258663</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -26420,7 +26427,9 @@
       <c r="H4" s="2">
         <v>0.9173717561986604</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -26462,7 +26471,9 @@
       <c r="H5" s="2">
         <v>2.7554723116591644</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -26572,7 +26583,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2">
         <v>2200</v>
@@ -26590,10 +26601,10 @@
         <v>3.79</v>
       </c>
       <c r="H8" s="2">
-        <v>0.58856787583946013</v>
+        <v>1.1038188336820194</v>
       </c>
       <c r="I8" s="2">
-        <v>1.4181565912852203</v>
+        <v>1.6990152147413928</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -26768,7 +26779,9 @@
       <c r="H12" s="2">
         <v>1.1839597643106621</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -26790,7 +26803,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2">
         <v>2000</v>
@@ -26808,9 +26821,11 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H13" s="2">
-        <v>0.87551570960138103</v>
-      </c>
-      <c r="I13" s="2"/>
+        <v>0.78012094963561462</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1.3625102372531497</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -26852,7 +26867,9 @@
       <c r="H14" s="2">
         <v>1.2322200921772852</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -26874,7 +26891,7 @@
         <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2">
         <v>2500</v>
@@ -26892,9 +26909,11 @@
         <v>14.67</v>
       </c>
       <c r="H15" s="2">
-        <v>1.3619209977790856</v>
-      </c>
-      <c r="I15" s="2"/>
+        <v>1.2959347329511699</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3.841290609056986</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -26936,7 +26955,9 @@
       <c r="H16" s="2">
         <v>3.183844439171668</v>
       </c>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -26978,7 +26999,9 @@
       <c r="H17" s="2">
         <v>2.1588309662983209</v>
       </c>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -27020,7 +27043,9 @@
       <c r="H18" s="2">
         <v>1.2238139224483209</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -27062,7 +27087,9 @@
       <c r="H19" s="2">
         <v>2.7431803264157835</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -27104,7 +27131,9 @@
       <c r="H20" s="2">
         <v>1.2788643799617569</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -27190,7 +27219,9 @@
       <c r="H22" s="2">
         <v>0.5217383002119359</v>
       </c>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -27232,7 +27263,9 @@
       <c r="H23" s="2">
         <v>3.56655476630042</v>
       </c>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -27450,7 +27483,9 @@
       <c r="H28" s="3">
         <v>1.6645384750571E-2</v>
       </c>
-      <c r="I28" s="6"/>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -27624,7 +27659,9 @@
       <c r="H32" s="3">
         <v>2.8656104333789099E-2</v>
       </c>
-      <c r="I32" s="6"/>
+      <c r="I32" s="6">
+        <v>0</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -27974,7 +28011,9 @@
       <c r="H40" s="3">
         <v>4.3957721493509301E-2</v>
       </c>
-      <c r="I40" s="3"/>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>

--- a/data/Bolometer_readings_PulseForge.xlsx
+++ b/data/Bolometer_readings_PulseForge.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valenetjong/Bayesian-Optimization-Ferroelectrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF80E99-0B81-8947-A465-36034AFC4636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B60BC9F-4B08-5448-82AA-87A4924718AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="28140" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
     <sheet name="Combined" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -593,7 +593,7 @@
   <dimension ref="A1:X982"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -720,7 +720,9 @@
       <c r="H3" s="3">
         <v>0.52173999999999998</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -806,7 +808,9 @@
       <c r="H5" s="3">
         <v>1.66109</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -980,7 +984,9 @@
       <c r="H9" s="3">
         <v>1.6650000000000002E-2</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1154,7 +1160,9 @@
       <c r="H13" s="3">
         <v>2.8660000000000001E-2</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1504,7 +1512,9 @@
       <c r="H21" s="3">
         <v>3.6549999999999999E-2</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1546,7 +1556,9 @@
       <c r="H22" s="3">
         <v>3.0370000000000001E-2</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -26253,8 +26265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/Bolometer_readings_PulseForge.xlsx
+++ b/data/Bolometer_readings_PulseForge.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valenetjong/Bayesian-Optimization-Ferroelectrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B60BC9F-4B08-5448-82AA-87A4924718AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4336180A-851C-0544-A312-11871F74D74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="28140" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41220" yWindow="500" windowWidth="28140" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
   <si>
     <t>Sample ID</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>30um_O_3D</t>
+  </si>
+  <si>
+    <t>KHM012_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHM012_06 </t>
+  </si>
+  <si>
+    <t>KHM012_03</t>
   </si>
 </sst>
 </file>
@@ -26266,7 +26275,7 @@
   <dimension ref="A1:X971"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28067,7 +28076,9 @@
       <c r="H41" s="3">
         <v>3.03715475384807E-2</v>
       </c>
-      <c r="I41" s="3"/>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -28085,15 +28096,29 @@
       <c r="X41" s="2"/>
     </row>
     <row r="42" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
+      <c r="A42" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="C42" s="9">
+        <v>720</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.17</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>100</v>
+      </c>
+      <c r="G42" s="2">
+        <v>8.85</v>
+      </c>
       <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="I42" s="2">
+        <v>3.15</v>
+      </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -28111,15 +28136,29 @@
       <c r="X42" s="2"/>
     </row>
     <row r="43" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="C43" s="2">
+        <v>712</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.33</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>100</v>
+      </c>
+      <c r="G43" s="2">
+        <v>8.85</v>
+      </c>
       <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="I43" s="2">
+        <v>3.2850000000000001</v>
+      </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -28137,15 +28176,28 @@
       <c r="X43" s="2"/>
     </row>
     <row r="44" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="2">
+        <v>697</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>100</v>
+      </c>
+      <c r="G44" s="2">
+        <v>5.89</v>
+      </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="I44" s="2">
+        <v>1.4550000000000001</v>
+      </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -28164,7 +28216,6 @@
     </row>
     <row r="45" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>

--- a/data/Bolometer_readings_PulseForge.xlsx
+++ b/data/Bolometer_readings_PulseForge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valenetjong/Bayesian-Optimization-Ferroelectrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4336180A-851C-0544-A312-11871F74D74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F4D726-F8DD-EF47-9D6B-E67178CE7C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41220" yWindow="500" windowWidth="28140" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="33520" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -26274,8 +26274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X971"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28216,13 +28216,25 @@
     </row>
     <row r="45" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="C45" s="2">
+        <v>707</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>100</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1.5</v>
+      </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="I45" s="2">
+        <v>3.48</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -28242,13 +28254,24 @@
     <row r="46" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="C46" s="2">
+        <v>714</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>100</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I46" s="2">
+        <v>3.31</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -28268,13 +28291,25 @@
     <row r="47" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="C47" s="2">
+        <v>669</v>
+      </c>
+      <c r="D47" s="2">
+        <v>4.66</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>100</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1.51</v>
+      </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="I47" s="2">
+        <v>3.55</v>
+      </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -28294,13 +28329,25 @@
     <row r="48" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="C48" s="2">
+        <v>719</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>100</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1.6</v>
+      </c>
       <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="I48" s="2">
+        <v>3.31</v>
+      </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -28320,13 +28367,25 @@
     <row r="49" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
+      <c r="C49" s="2">
+        <v>714</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>100</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1.33</v>
+      </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="I49" s="2">
+        <v>3.34</v>
+      </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -28346,13 +28405,25 @@
     <row r="50" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
+      <c r="C50" s="2">
+        <v>719</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>100</v>
+      </c>
+      <c r="G50" s="2">
+        <v>1.35</v>
+      </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="I50" s="2">
+        <v>3.39</v>
+      </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -28372,13 +28443,25 @@
     <row r="51" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
+      <c r="C51" s="2">
+        <v>676</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1.51</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>100</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1.28</v>
+      </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="I51" s="2">
+        <v>3.25</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>

--- a/data/Bolometer_readings_PulseForge.xlsx
+++ b/data/Bolometer_readings_PulseForge.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valenetjong/Bayesian-Optimization-Ferroelectrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F4D726-F8DD-EF47-9D6B-E67178CE7C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCD5E00-8B00-7446-BAE7-408958B2B89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="33520" windowHeight="19560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -26274,8 +26274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28229,7 +28229,7 @@
         <v>100</v>
       </c>
       <c r="G45" s="2">
-        <v>1.5</v>
+        <v>8.86</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2">
@@ -28267,7 +28267,7 @@
         <v>100</v>
       </c>
       <c r="G46" s="2">
-        <v>1.5</v>
+        <v>9.0500000000000007</v>
       </c>
       <c r="I46" s="2">
         <v>3.31</v>
@@ -28304,7 +28304,7 @@
         <v>100</v>
       </c>
       <c r="G47" s="2">
-        <v>1.51</v>
+        <v>14.8</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2">
@@ -28342,7 +28342,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="2">
-        <v>1.6</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2">
@@ -28380,7 +28380,7 @@
         <v>100</v>
       </c>
       <c r="G49" s="2">
-        <v>1.33</v>
+        <v>10.02</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49" s="2">
@@ -28418,7 +28418,7 @@
         <v>100</v>
       </c>
       <c r="G50" s="2">
-        <v>1.35</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2">
@@ -28456,7 +28456,7 @@
         <v>100</v>
       </c>
       <c r="G51" s="2">
-        <v>1.28</v>
+        <v>12.34</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51" s="2">
@@ -28481,13 +28481,25 @@
     <row r="52" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="C52" s="2">
+        <v>681</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>100</v>
+      </c>
+      <c r="G52" s="2">
+        <v>8.7100000000000009</v>
+      </c>
       <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="I52" s="2">
+        <v>3.4</v>
+      </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -28507,13 +28519,25 @@
     <row r="53" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
+      <c r="C53" s="2">
+        <v>687</v>
+      </c>
+      <c r="D53" s="2">
+        <v>4.79</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>100</v>
+      </c>
+      <c r="G53" s="7">
+        <v>14.49</v>
+      </c>
       <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="I53" s="2">
+        <v>3.63</v>
+      </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -28533,13 +28557,25 @@
     <row r="54" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="C54" s="2">
+        <v>671</v>
+      </c>
+      <c r="D54" s="7">
+        <v>4.79</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>100</v>
+      </c>
+      <c r="G54" s="7">
+        <v>15.29</v>
+      </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="I54" s="2">
+        <v>3.59</v>
+      </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -28559,13 +28595,25 @@
     <row r="55" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="C55" s="2">
+        <v>717</v>
+      </c>
+      <c r="D55" s="7">
+        <v>1.47</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>100</v>
+      </c>
+      <c r="G55" s="7">
+        <v>9.16</v>
+      </c>
       <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="I55" s="2">
+        <v>3.39</v>
+      </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
@@ -28585,13 +28633,25 @@
     <row r="56" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="C56" s="2">
+        <v>709</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>100</v>
+      </c>
+      <c r="G56" s="2">
+        <v>8.8800000000000008</v>
+      </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="I56" s="2">
+        <v>3.4</v>
+      </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -28611,13 +28671,25 @@
     <row r="57" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
+      <c r="C57" s="2">
+        <v>656</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4.58</v>
+      </c>
+      <c r="E57" s="2">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>100</v>
+      </c>
+      <c r="G57" s="2">
+        <v>14.89</v>
+      </c>
       <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="I57" s="2">
+        <v>3.7</v>
+      </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
@@ -28637,13 +28709,25 @@
     <row r="58" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="C58" s="2">
+        <v>717</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1.37</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="2">
+        <v>100</v>
+      </c>
+      <c r="G58" s="2">
+        <v>9.81</v>
+      </c>
       <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="I58" s="2">
+        <v>3.45</v>
+      </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
@@ -28663,13 +28747,25 @@
     <row r="59" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
+      <c r="C59" s="2">
+        <v>737</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>100</v>
+      </c>
+      <c r="G59" s="2">
+        <v>8.83</v>
+      </c>
       <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="I59" s="2">
+        <v>3.23</v>
+      </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>

--- a/data/Bolometer_readings_PulseForge.xlsx
+++ b/data/Bolometer_readings_PulseForge.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valenetjong/Bayesian-Optimization-Ferroelectrics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCD5E00-8B00-7446-BAE7-408958B2B89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E133D1-A0B4-8A4C-839A-AC75668D27AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,12 +337,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -357,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,6 +388,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -26274,8 +26283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26732,31 +26741,31 @@
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="10">
         <v>2700</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="10">
         <v>1.5</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="10">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="10">
         <v>100</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="10">
         <v>8.99</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="10">
         <v>2.4380445972106783</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="10">
         <v>4.5351528173590028</v>
       </c>
       <c r="J11" s="1"/>
